--- a/manage/猫咪档案.xlsx
+++ b/manage/猫咪档案.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/circle/Documents/GitHub/WanliuMeow/miniprogram/pages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/circle/Documents/GitHub/WanliuMeow/manage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C06C7B-548D-604B-9B4A-A3E1ABC8E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01805EE1-3FDD-3C42-97C3-92700E7AD111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1760" windowWidth="31500" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1760" windowWidth="31500" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="万柳喵" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">万柳喵!$A$12:$T$112</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="166">
   <si>
     <t>建立档案：2022-04-06</t>
   </si>
@@ -380,9 +392,6 @@
     <t>失踪</t>
   </si>
   <si>
-    <t>2021年06月04号</t>
-  </si>
-  <si>
     <t>白下巴 白围脖 白手套 基因强大的大鼻孔</t>
   </si>
   <si>
@@ -404,9 +413,6 @@
     <t>渣渣辉的爱妻，猫猫交际花，和小可、咪猫、麻团关系都好</t>
   </si>
   <si>
-    <t>2021年07月</t>
-  </si>
-  <si>
     <t>猫瘟</t>
   </si>
   <si>
@@ -425,9 +431,6 @@
     <t>已更名为Peace</t>
   </si>
   <si>
-    <t>2021年09月</t>
-  </si>
-  <si>
     <t>Nature</t>
   </si>
   <si>
@@ -458,18 +461,12 @@
     <t>Name的女儿</t>
   </si>
   <si>
-    <t>2021年10月</t>
-  </si>
-  <si>
     <t>面包</t>
   </si>
   <si>
     <t>银床金被 蝴蝶鼻 脸毛略长</t>
   </si>
   <si>
-    <t>2021年11月</t>
-  </si>
-  <si>
     <t>炸鸡</t>
   </si>
   <si>
@@ -497,9 +494,6 @@
     <t>健康</t>
   </si>
   <si>
-    <t>2022年02月25号</t>
-  </si>
-  <si>
     <t xml:space="preserve">短毛 中分刘海 大媒婆痣 </t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>纯白</t>
   </si>
   <si>
-    <t>2021年12月09号</t>
-  </si>
-  <si>
     <t>黄蓝异瞳 一脸凶样</t>
   </si>
   <si>
@@ -527,9 +518,6 @@
     <t>阿狸</t>
   </si>
   <si>
-    <t>2022年03月23号</t>
-  </si>
-  <si>
     <t>白嘴围 嘴边有一点狸花纹</t>
   </si>
   <si>
@@ -545,9 +533,6 @@
     <t>嫖嫖</t>
   </si>
   <si>
-    <t>2020年03月</t>
-  </si>
-  <si>
     <t>俊俏的狸花弟弟 白手套白围脖白鼻梁 白色中筒靴 蝴蝶嘴非常好看</t>
   </si>
   <si>
@@ -590,12 +575,6 @@
     <t>阿橙</t>
   </si>
   <si>
-    <t>2022年03月22号</t>
-  </si>
-  <si>
-    <t>2019年03月</t>
-  </si>
-  <si>
     <t>白领巾 两只白袜子</t>
   </si>
   <si>
@@ -608,12 +587,6 @@
     <t>阿黄</t>
   </si>
   <si>
-    <t>2022年02月28号</t>
-  </si>
-  <si>
-    <t>2021年02月</t>
-  </si>
-  <si>
     <t>好看的橘白猫 脸上白多 白领巾</t>
   </si>
   <si>
@@ -626,9 +599,6 @@
     <t>咪猫</t>
   </si>
   <si>
-    <t>2021年06月12号</t>
-  </si>
-  <si>
     <t>有点好看的狸花猫，蝴蝶嘴，白胸毛白爪子，很胖尾巴很粗</t>
   </si>
   <si>
@@ -641,12 +611,6 @@
     <t>北冰洋</t>
   </si>
   <si>
-    <t>2022年04月13号</t>
-  </si>
-  <si>
-    <t>2014年04月</t>
-  </si>
-  <si>
     <t>中分头橘白，白多橘少，橘色裤衩橘色尾巴</t>
   </si>
   <si>
@@ -654,6 +618,30 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-07</t>
   </si>
 </sst>
 </file>
@@ -663,7 +651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +734,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -976,7 +970,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,12 +1025,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1044,15 +1032,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1093,9 +1072,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1122,9 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1145,12 +1118,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,6 +1151,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -1464,9 +1479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="150" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1482,8 +1497,8 @@
     <col min="9" max="9" width="8.83203125" style="5"/>
     <col min="10" max="10" width="10.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="4"/>
-    <col min="12" max="12" width="12.83203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15" style="72" customWidth="1"/>
     <col min="14" max="14" width="40.33203125" style="4" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" style="4" customWidth="1"/>
     <col min="16" max="16" width="24.33203125" style="7" customWidth="1"/>
@@ -1491,7 +1506,7 @@
     <col min="18" max="18" width="22.33203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="20.5" style="4" customWidth="1"/>
     <col min="20" max="20" width="18.83203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" style="46" customWidth="1"/>
     <col min="22" max="23" width="17.6640625" style="4" customWidth="1"/>
     <col min="24" max="24" width="15.5" style="8" customWidth="1"/>
     <col min="25" max="25" width="12.5" style="4" customWidth="1"/>
@@ -1525,63 +1540,63 @@
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3"/>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="37">
         <v>6</v>
       </c>
-      <c r="T3" s="44" t="s">
+      <c r="T3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="U3" s="78" t="s">
         <v>14</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="W3" s="9"/>
-      <c r="X3" s="43">
+      <c r="X3" s="37">
         <v>0</v>
       </c>
-      <c r="Y3" s="47" t="s">
+      <c r="Y3" s="41" t="s">
         <v>16</v>
       </c>
       <c r="AA3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="54" t="s">
+      <c r="AB3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AC3" s="49" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1589,88 +1604,85 @@
       <c r="E4" s="2"/>
       <c r="I4" s="15"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="45">
+      <c r="S4" s="39">
         <v>5</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="61"/>
-      <c r="X4" s="50" t="s">
+      <c r="U4" s="79"/>
+      <c r="X4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="49" t="s">
+      <c r="Y4" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="H5" s="62" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="H5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="39">
         <v>4</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="61"/>
+      <c r="U5" s="79"/>
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:29">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="S6" s="45">
+      <c r="S6" s="39">
         <v>3</v>
       </c>
-      <c r="T6" s="46" t="s">
+      <c r="T6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="79" t="s">
         <v>29</v>
       </c>
       <c r="V6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W6" s="9"/>
-      <c r="X6" s="43">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="47" t="s">
+      <c r="X6" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="41" t="s">
         <v>31</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" s="56" t="s">
+      <c r="AC6" s="49" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1682,27 +1694,26 @@
       <c r="G7" s="1"/>
       <c r="I7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
       <c r="O7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="47" t="s">
+      <c r="Q7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="39">
         <v>2</v>
       </c>
-      <c r="T7" s="46" t="s">
+      <c r="T7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="61"/>
-      <c r="X7" s="45">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="55" t="s">
+      <c r="U7" s="79"/>
+      <c r="X7" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="48" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1714,26 +1725,25 @@
       <c r="G8" s="1"/>
       <c r="I8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="48" t="s">
+      <c r="Q8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="45">
-        <v>1</v>
-      </c>
-      <c r="T8" s="46" t="s">
+      <c r="S8" s="39">
+        <v>1</v>
+      </c>
+      <c r="T8" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="61" t="s">
+      <c r="U8" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="X8" s="45">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="55" t="s">
+      <c r="X8" s="37">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1745,31 +1755,30 @@
       <c r="G9" s="1"/>
       <c r="I9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="49" t="s">
+      <c r="Q9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="39">
         <v>0</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="X9" s="45">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="55" t="s">
+      <c r="U9" s="79"/>
+      <c r="X9" s="39">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="57"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" s="7"/>
@@ -1779,24 +1788,23 @@
       <c r="L10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="51" t="s">
         <v>50</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="44">
         <v>-1</v>
       </c>
-      <c r="T10" s="51" t="s">
+      <c r="T10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="52"/>
-      <c r="X10" s="50">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="49" t="s">
+      <c r="U10" s="80"/>
+      <c r="X10" s="37">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1813,10 +1821,9 @@
       <c r="L11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="P11" s="59"/>
+      <c r="P11" s="52"/>
       <c r="Q11" s="7"/>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="81" t="s">
         <v>56</v>
       </c>
       <c r="X11" s="4"/>
@@ -1858,7 +1865,7 @@
       <c r="L12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="72" t="s">
         <v>68</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -1870,7 +1877,7 @@
       <c r="P12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="40" t="s">
         <v>72</v>
       </c>
       <c r="R12" s="4" t="s">
@@ -1882,7 +1889,7 @@
       <c r="T12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="46" t="s">
         <v>76</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1898,7 +1905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="15">
       <c r="B13" s="3">
         <v>1</v>
       </c>
@@ -1911,8 +1918,8 @@
       <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="4">
-        <v>2</v>
+      <c r="G13" s="70">
+        <v>1</v>
       </c>
       <c r="I13" s="17">
         <v>1</v>
@@ -1923,41 +1930,40 @@
       <c r="K13" s="19">
         <v>1</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="64">
+        <v>44351</v>
+      </c>
+      <c r="M13" s="75"/>
+      <c r="N13" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="36" t="s">
+      <c r="O13" s="32">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="O13" s="37">
-        <v>0</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>84</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="U13" s="53"/>
+        <v>84</v>
+      </c>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" ht="15">
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="G14" s="70">
+        <v>3</v>
       </c>
       <c r="I14" s="17">
         <v>0</v>
@@ -1968,49 +1974,48 @@
       <c r="K14" s="19">
         <v>1</v>
       </c>
-      <c r="L14" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="O14" s="37">
+      <c r="L14" s="65">
+        <v>44351</v>
+      </c>
+      <c r="M14" s="75"/>
+      <c r="N14" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="32">
         <v>2</v>
       </c>
-      <c r="P14" s="38" t="s">
-        <v>84</v>
+      <c r="P14" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U14" s="53"/>
-      <c r="V14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" ht="15">
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22">
+        <v>91</v>
+      </c>
+      <c r="G15" s="70">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
         <v>1</v>
       </c>
       <c r="J15" s="19" t="s">
@@ -2019,96 +2024,96 @@
       <c r="K15" s="18">
         <v>1</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="75"/>
       <c r="N15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="39">
+        <v>92</v>
+      </c>
+      <c r="O15" s="34">
         <v>6</v>
       </c>
-      <c r="P15" s="38" t="s">
-        <v>84</v>
+      <c r="P15" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="U15" s="46" t="s">
+        <v>158</v>
       </c>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="15">
       <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="70">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="34">
+        <v>6</v>
+      </c>
+      <c r="P16" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="13">
-        <v>2</v>
-      </c>
-      <c r="I16" s="22">
-        <v>1</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" s="39">
-        <v>6</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="U16" s="82" t="s">
+        <v>158</v>
       </c>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="15">
       <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4</v>
-      </c>
-      <c r="I17" s="22">
+        <v>102</v>
+      </c>
+      <c r="G17" s="70">
+        <v>3</v>
+      </c>
+      <c r="I17" s="20">
         <v>0</v>
       </c>
       <c r="J17" s="19" t="s">
@@ -2117,34 +2122,34 @@
       <c r="K17" s="19">
         <v>1</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21" t="s">
-        <v>97</v>
+      <c r="L17" s="65"/>
+      <c r="M17" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O17" s="18">
         <v>6</v>
       </c>
-      <c r="P17" s="38" t="s">
-        <v>102</v>
+      <c r="P17" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="U17" s="82" t="s">
+        <v>163</v>
       </c>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="15">
       <c r="B18" s="3">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2152,10 +2157,10 @@
       <c r="F18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="G18" s="70">
+        <v>1</v>
+      </c>
+      <c r="I18" s="20">
         <v>1</v>
       </c>
       <c r="J18" s="19" t="s">
@@ -2164,44 +2169,44 @@
       <c r="K18" s="19">
         <v>1</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>110</v>
+      <c r="L18" s="65"/>
+      <c r="M18" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="O18" s="18">
         <v>6</v>
       </c>
-      <c r="P18" s="38" t="s">
-        <v>102</v>
+      <c r="P18" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>111</v>
+      <c r="R18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U18" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="15">
       <c r="A19" s="4"/>
       <c r="B19" s="3">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="4">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="G19" s="70">
+        <v>1</v>
       </c>
       <c r="I19" s="19">
         <v>0</v>
@@ -2212,75 +2217,75 @@
       <c r="K19" s="19">
         <v>0</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="21" t="s">
-        <v>97</v>
+      <c r="L19" s="66"/>
+      <c r="M19" s="75" t="s">
+        <v>158</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O19" s="19">
         <v>6</v>
       </c>
-      <c r="P19" s="38" t="s">
-        <v>102</v>
+      <c r="P19" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="U19" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" ht="15">
       <c r="A20" s="4"/>
       <c r="B20" s="3">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="4">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="G20" s="70">
+        <v>1</v>
       </c>
       <c r="I20" s="19">
         <v>-1</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K20" s="19">
         <v>-1</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="21"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="75"/>
       <c r="N20" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O20" s="4">
         <v>3</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1">
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B21" s="10">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -2288,86 +2293,88 @@
       <c r="F21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="1">
-        <v>3</v>
+      <c r="G21" s="70">
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M21" s="21"/>
+      <c r="L21" s="67">
+        <v>44617</v>
+      </c>
+      <c r="M21" s="75"/>
       <c r="N21" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="1" customFormat="1">
+        <v>117</v>
+      </c>
+      <c r="U21" s="76"/>
+    </row>
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B22" s="10">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="1">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="G22" s="70">
+        <v>4</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="67">
+        <v>44539</v>
+      </c>
+      <c r="M22" s="75"/>
+      <c r="N22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="O22" s="1">
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="1" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="U22" s="76"/>
+    </row>
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B23" s="10">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2375,53 +2382,54 @@
       <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
+      <c r="G23" s="70">
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M23" s="21"/>
+      <c r="L23" s="67">
+        <v>44643</v>
+      </c>
+      <c r="M23" s="75"/>
       <c r="N23" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="1" customFormat="1">
+        <v>127</v>
+      </c>
+      <c r="U23" s="76"/>
+    </row>
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B24" s="10">
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="G24" s="70">
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -2432,40 +2440,42 @@
       <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="21" t="s">
-        <v>137</v>
+      <c r="L24" s="67"/>
+      <c r="M24" s="75" t="s">
+        <v>159</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="1" customFormat="1">
+        <v>130</v>
+      </c>
+      <c r="U24" s="76"/>
+    </row>
+    <row r="25" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B25" s="10">
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="G25" s="70">
+        <v>3</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -2476,107 +2486,115 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="21" t="s">
-        <v>137</v>
+      <c r="L25" s="67"/>
+      <c r="M25" s="75" t="s">
+        <v>159</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" s="1" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="U25" s="76"/>
+    </row>
+    <row r="26" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B26" s="10">
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="G26" s="70">
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
+      <c r="L26" s="67"/>
+      <c r="M26" s="76"/>
       <c r="N26" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="1" customFormat="1">
+        <v>137</v>
+      </c>
+      <c r="U26" s="76"/>
+    </row>
+    <row r="27" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B27" s="10">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="G27" s="70">
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
       </c>
+      <c r="L27" s="67"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" s="1" customFormat="1">
+        <v>141</v>
+      </c>
+      <c r="U27" s="76"/>
+    </row>
+    <row r="28" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B28" s="10">
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D28" s="11">
         <v>1</v>
@@ -2585,48 +2603,48 @@
       <c r="F28" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="11">
-        <v>2</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="24">
+      <c r="G28" s="70">
+        <v>1</v>
+      </c>
+      <c r="I28" s="22">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K28" s="11">
         <v>1</v>
       </c>
-      <c r="L28" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>154</v>
+      <c r="L28" s="68">
+        <v>44642</v>
+      </c>
+      <c r="M28" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="N28" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="O28" s="14">
         <v>0</v>
       </c>
-      <c r="P28" s="41" t="s">
-        <v>133</v>
+      <c r="P28" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="R28" s="11" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="1" customFormat="1">
+        <v>145</v>
+      </c>
+      <c r="U28" s="76"/>
+    </row>
+    <row r="29" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B29" s="10">
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D29" s="11">
         <v>2</v>
@@ -2635,48 +2653,48 @@
       <c r="F29" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="24">
+      <c r="G29" s="70">
+        <v>1</v>
+      </c>
+      <c r="I29" s="22">
         <v>1</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K29" s="11">
         <v>1</v>
       </c>
-      <c r="L29" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="N29" s="40" t="s">
-        <v>160</v>
+      <c r="L29" s="69">
+        <v>44620</v>
+      </c>
+      <c r="M29" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>147</v>
       </c>
       <c r="O29" s="14">
         <v>0</v>
       </c>
-      <c r="P29" s="41" t="s">
-        <v>133</v>
+      <c r="P29" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="11" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="1" customFormat="1">
+        <v>149</v>
+      </c>
+      <c r="U29" s="76"/>
+    </row>
+    <row r="30" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B30" s="10">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2684,10 +2702,10 @@
       <c r="F30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="24">
+      <c r="G30" s="70">
+        <v>0</v>
+      </c>
+      <c r="I30" s="22">
         <v>1</v>
       </c>
       <c r="J30" s="18" t="s">
@@ -2696,31 +2714,33 @@
       <c r="K30" s="1">
         <v>1</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="L30" s="67">
+        <v>44359</v>
+      </c>
+      <c r="M30" s="76"/>
       <c r="N30" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="1" customFormat="1">
+        <v>153</v>
+      </c>
+      <c r="U30" s="76"/>
+    </row>
+    <row r="31" spans="1:24" s="1" customFormat="1" ht="15">
       <c r="B31" s="10">
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2728,601 +2748,2294 @@
       <c r="F31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="1">
-        <v>2</v>
+      <c r="G31" s="70">
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
-      <c r="L31" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>170</v>
+      <c r="L31" s="69">
+        <v>44664</v>
+      </c>
+      <c r="M31" s="75" t="s">
+        <v>162</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" customFormat="1" ht="15"/>
-    <row r="36" customFormat="1" ht="15"/>
-    <row r="37" customFormat="1" ht="15"/>
-    <row r="38" customFormat="1" ht="15"/>
-    <row r="39" customFormat="1" ht="15"/>
-    <row r="40" customFormat="1" ht="15"/>
-    <row r="41" customFormat="1" ht="15"/>
-    <row r="42" customFormat="1" ht="15"/>
-    <row r="43" customFormat="1" ht="15"/>
-    <row r="44" customFormat="1" ht="15"/>
-    <row r="45" customFormat="1" ht="15"/>
-    <row r="46" customFormat="1" ht="15"/>
-    <row r="47" customFormat="1" ht="15"/>
-    <row r="48" customFormat="1" ht="15"/>
-    <row r="49" customFormat="1" ht="15"/>
-    <row r="50" customFormat="1" ht="15"/>
-    <row r="51" customFormat="1" ht="15"/>
-    <row r="52" customFormat="1" ht="15"/>
-    <row r="53" customFormat="1" ht="15"/>
-    <row r="54" customFormat="1" ht="15"/>
-    <row r="55" customFormat="1" ht="15"/>
-    <row r="56" customFormat="1" ht="15"/>
-    <row r="57" customFormat="1" ht="15"/>
-    <row r="58" customFormat="1" ht="15"/>
-    <row r="59" customFormat="1" ht="15"/>
-    <row r="60" customFormat="1" ht="15"/>
-    <row r="61" customFormat="1" ht="15"/>
-    <row r="62" customFormat="1" ht="15"/>
-    <row r="63" customFormat="1" ht="15"/>
-    <row r="64" customFormat="1" ht="15"/>
-    <row r="65" customFormat="1" ht="15"/>
-    <row r="66" customFormat="1" ht="15"/>
-    <row r="67" customFormat="1" ht="15"/>
-    <row r="68" customFormat="1" ht="15"/>
-    <row r="69" customFormat="1" ht="15"/>
-    <row r="70" customFormat="1" ht="15"/>
-    <row r="71" customFormat="1" ht="15"/>
-    <row r="72" customFormat="1" ht="15"/>
-    <row r="73" customFormat="1" ht="15"/>
-    <row r="74" customFormat="1" ht="15"/>
-    <row r="75" customFormat="1" ht="15"/>
-    <row r="76" customFormat="1" ht="15"/>
-    <row r="77" customFormat="1" ht="15"/>
-    <row r="78" customFormat="1" ht="15"/>
-    <row r="79" customFormat="1" ht="15"/>
-    <row r="80" customFormat="1" ht="15"/>
-    <row r="81" customFormat="1" ht="15"/>
-    <row r="82" customFormat="1" ht="15"/>
-    <row r="83" customFormat="1" ht="15"/>
-    <row r="84" customFormat="1" ht="15"/>
-    <row r="85" customFormat="1" ht="15"/>
-    <row r="86" customFormat="1" ht="15"/>
-    <row r="87" customFormat="1" ht="15"/>
-    <row r="88" customFormat="1" ht="15"/>
-    <row r="89" customFormat="1" ht="15"/>
-    <row r="90" customFormat="1" ht="15"/>
-    <row r="91" customFormat="1" ht="15"/>
-    <row r="92" customFormat="1" ht="15"/>
-    <row r="93" customFormat="1" ht="15"/>
-    <row r="94" customFormat="1" ht="15"/>
-    <row r="95" customFormat="1" ht="15"/>
-    <row r="96" customFormat="1" ht="15"/>
-    <row r="97" customFormat="1" ht="15"/>
-    <row r="98" customFormat="1" ht="15"/>
-    <row r="99" customFormat="1" ht="15"/>
-    <row r="100" customFormat="1" ht="15"/>
-    <row r="101" customFormat="1" ht="15"/>
-    <row r="102" customFormat="1" ht="15"/>
-    <row r="103" customFormat="1" ht="15"/>
-    <row r="104" customFormat="1" ht="15"/>
-    <row r="105" customFormat="1" ht="15"/>
-    <row r="106" customFormat="1" ht="15"/>
-    <row r="107" customFormat="1" ht="15"/>
-    <row r="108" customFormat="1" ht="15"/>
-    <row r="109" customFormat="1" ht="15"/>
-    <row r="110" customFormat="1" ht="15"/>
-    <row r="111" customFormat="1" ht="15"/>
-    <row r="112" customFormat="1" ht="15"/>
-    <row r="113" customFormat="1" ht="15"/>
-    <row r="114" customFormat="1" ht="15"/>
-    <row r="115" customFormat="1" ht="15"/>
-    <row r="116" customFormat="1" ht="15"/>
-    <row r="117" customFormat="1" ht="15"/>
-    <row r="118" customFormat="1" ht="15"/>
-    <row r="119" customFormat="1" ht="15"/>
-    <row r="120" customFormat="1" ht="15"/>
-    <row r="121" customFormat="1" ht="15"/>
-    <row r="122" customFormat="1" ht="15"/>
-    <row r="123" customFormat="1" ht="15"/>
-    <row r="124" customFormat="1" ht="15"/>
-    <row r="125" customFormat="1" ht="15"/>
-    <row r="126" customFormat="1" ht="15"/>
-    <row r="127" customFormat="1" ht="15"/>
-    <row r="128" customFormat="1" ht="15"/>
-    <row r="129" customFormat="1" ht="15"/>
-    <row r="130" customFormat="1" ht="15"/>
-    <row r="131" customFormat="1" ht="15"/>
-    <row r="132" customFormat="1" ht="15"/>
-    <row r="133" customFormat="1" ht="15"/>
-    <row r="134" customFormat="1" ht="15"/>
-    <row r="135" customFormat="1" ht="15"/>
-    <row r="136" customFormat="1" ht="15"/>
-    <row r="137" customFormat="1" ht="15"/>
-    <row r="138" customFormat="1" ht="15"/>
-    <row r="139" customFormat="1" ht="15"/>
-    <row r="140" customFormat="1" ht="15"/>
-    <row r="141" customFormat="1" ht="15"/>
-    <row r="142" customFormat="1" ht="15"/>
-    <row r="143" customFormat="1" ht="15"/>
-    <row r="144" customFormat="1" ht="15"/>
-    <row r="145" customFormat="1" ht="15"/>
-    <row r="146" customFormat="1" ht="15"/>
-    <row r="147" customFormat="1" ht="15"/>
-    <row r="148" customFormat="1" ht="15"/>
-    <row r="149" customFormat="1" ht="15"/>
-    <row r="150" customFormat="1" ht="15"/>
-    <row r="151" customFormat="1" ht="15"/>
-    <row r="152" customFormat="1" ht="15"/>
-    <row r="153" customFormat="1" ht="15"/>
-    <row r="154" customFormat="1" ht="15"/>
-    <row r="155" customFormat="1" ht="15"/>
-    <row r="156" customFormat="1" ht="15"/>
-    <row r="157" customFormat="1" ht="15"/>
-    <row r="158" customFormat="1" ht="15"/>
-    <row r="159" customFormat="1" ht="15"/>
-    <row r="160" customFormat="1" ht="15"/>
-    <row r="161" customFormat="1" ht="15"/>
-    <row r="162" customFormat="1" ht="15"/>
-    <row r="163" customFormat="1" ht="15"/>
-    <row r="164" customFormat="1" ht="15"/>
-    <row r="165" customFormat="1" ht="15"/>
-    <row r="166" customFormat="1" ht="15"/>
-    <row r="167" customFormat="1" ht="15"/>
-    <row r="168" customFormat="1" ht="15"/>
-    <row r="169" customFormat="1" ht="15"/>
-    <row r="170" customFormat="1" ht="15"/>
-    <row r="171" customFormat="1" ht="15"/>
-    <row r="172" customFormat="1" ht="15"/>
-    <row r="173" customFormat="1" ht="15"/>
-    <row r="174" customFormat="1" ht="15"/>
-    <row r="175" customFormat="1" ht="15"/>
-    <row r="176" customFormat="1" ht="15"/>
-    <row r="177" customFormat="1" ht="15"/>
-    <row r="178" customFormat="1" ht="15"/>
-    <row r="179" customFormat="1" ht="15"/>
-    <row r="180" customFormat="1" ht="15"/>
-    <row r="181" customFormat="1" ht="15"/>
-    <row r="182" customFormat="1" ht="15"/>
-    <row r="183" customFormat="1" ht="15"/>
-    <row r="184" customFormat="1" ht="15"/>
-    <row r="185" customFormat="1" ht="15"/>
-    <row r="186" customFormat="1" ht="15"/>
-    <row r="187" customFormat="1" ht="15"/>
-    <row r="188" customFormat="1" ht="15"/>
-    <row r="189" customFormat="1" ht="15"/>
-    <row r="190" customFormat="1" ht="15"/>
-    <row r="191" customFormat="1" ht="15"/>
-    <row r="192" customFormat="1" ht="15"/>
-    <row r="193" customFormat="1" ht="15"/>
-    <row r="194" customFormat="1" ht="15"/>
-    <row r="195" customFormat="1" ht="15"/>
-    <row r="196" customFormat="1" ht="15"/>
-    <row r="197" customFormat="1" ht="15"/>
-    <row r="198" customFormat="1" ht="15"/>
-    <row r="199" customFormat="1" ht="15"/>
-    <row r="200" customFormat="1" ht="15"/>
-    <row r="201" customFormat="1" ht="15"/>
-    <row r="202" customFormat="1" ht="15"/>
-    <row r="203" customFormat="1" ht="15"/>
-    <row r="204" customFormat="1" ht="15"/>
-    <row r="205" customFormat="1" ht="15"/>
-    <row r="206" customFormat="1" ht="15"/>
-    <row r="207" customFormat="1" ht="15"/>
-    <row r="208" customFormat="1" ht="15"/>
-    <row r="209" customFormat="1" ht="15"/>
-    <row r="210" customFormat="1" ht="15"/>
-    <row r="211" customFormat="1" ht="15"/>
-    <row r="212" customFormat="1" ht="15"/>
-    <row r="213" customFormat="1" ht="15"/>
-    <row r="214" customFormat="1" ht="15"/>
-    <row r="215" customFormat="1" ht="15"/>
-    <row r="216" customFormat="1" ht="15"/>
-    <row r="217" customFormat="1" ht="15"/>
-    <row r="218" customFormat="1" ht="15"/>
-    <row r="219" customFormat="1" ht="15"/>
-    <row r="220" customFormat="1" ht="15"/>
-    <row r="221" customFormat="1" ht="15"/>
-    <row r="222" customFormat="1" ht="15"/>
-    <row r="223" customFormat="1" ht="15"/>
-    <row r="224" customFormat="1" ht="15"/>
-    <row r="225" customFormat="1" ht="15"/>
-    <row r="226" customFormat="1" ht="15"/>
-    <row r="227" customFormat="1" ht="15"/>
-    <row r="228" customFormat="1" ht="15"/>
-    <row r="229" customFormat="1" ht="15"/>
-    <row r="230" customFormat="1" ht="15"/>
-    <row r="231" customFormat="1" ht="15"/>
-    <row r="232" customFormat="1" ht="15"/>
-    <row r="233" customFormat="1" ht="15"/>
-    <row r="234" customFormat="1" ht="15"/>
-    <row r="235" customFormat="1" ht="15"/>
-    <row r="236" customFormat="1" ht="15"/>
-    <row r="237" customFormat="1" ht="15"/>
-    <row r="238" customFormat="1" ht="15"/>
-    <row r="239" customFormat="1" ht="15"/>
-    <row r="240" customFormat="1" ht="15"/>
-    <row r="241" customFormat="1" ht="15"/>
-    <row r="242" customFormat="1" ht="15"/>
-    <row r="243" customFormat="1" ht="15"/>
-    <row r="244" customFormat="1" ht="15"/>
-    <row r="245" customFormat="1" ht="15"/>
-    <row r="246" customFormat="1" ht="15"/>
-    <row r="247" customFormat="1" ht="15"/>
-    <row r="248" customFormat="1" ht="15"/>
-    <row r="249" customFormat="1" ht="15"/>
-    <row r="250" customFormat="1" ht="15"/>
-    <row r="251" customFormat="1" ht="15"/>
-    <row r="252" customFormat="1" ht="15"/>
-    <row r="253" customFormat="1" ht="15"/>
-    <row r="254" customFormat="1" ht="15"/>
-    <row r="255" customFormat="1" ht="15"/>
-    <row r="256" customFormat="1" ht="15"/>
-    <row r="257" customFormat="1" ht="15"/>
-    <row r="258" customFormat="1" ht="15"/>
-    <row r="259" customFormat="1" ht="15"/>
-    <row r="260" customFormat="1" ht="15"/>
-    <row r="261" customFormat="1" ht="15"/>
-    <row r="262" customFormat="1" ht="15"/>
-    <row r="263" customFormat="1" ht="15"/>
-    <row r="264" customFormat="1" ht="15"/>
-    <row r="265" customFormat="1" ht="15"/>
-    <row r="266" customFormat="1" ht="15"/>
-    <row r="267" customFormat="1" ht="15"/>
-    <row r="268" customFormat="1" ht="15"/>
-    <row r="269" customFormat="1" ht="15"/>
-    <row r="270" customFormat="1" ht="15"/>
-    <row r="271" customFormat="1" ht="15"/>
-    <row r="272" customFormat="1" ht="15"/>
-    <row r="273" customFormat="1" ht="15"/>
-    <row r="274" customFormat="1" ht="15"/>
-    <row r="275" customFormat="1" ht="15"/>
-    <row r="276" customFormat="1" ht="15"/>
-    <row r="277" customFormat="1" ht="15"/>
-    <row r="278" customFormat="1" ht="15"/>
-    <row r="279" customFormat="1" ht="15"/>
-    <row r="280" customFormat="1" ht="15"/>
-    <row r="281" customFormat="1" ht="15"/>
-    <row r="282" customFormat="1" ht="15"/>
-    <row r="283" customFormat="1" ht="15"/>
-    <row r="284" customFormat="1" ht="15"/>
-    <row r="285" customFormat="1" ht="15"/>
-    <row r="286" customFormat="1" ht="15"/>
-    <row r="287" customFormat="1" ht="15"/>
-    <row r="288" customFormat="1" ht="15"/>
-    <row r="289" customFormat="1" ht="15"/>
-    <row r="290" customFormat="1" ht="15"/>
-    <row r="291" customFormat="1" ht="15"/>
-    <row r="292" customFormat="1" ht="15"/>
-    <row r="293" customFormat="1" ht="15"/>
-    <row r="294" customFormat="1" ht="15"/>
-    <row r="295" customFormat="1" ht="15"/>
-    <row r="296" customFormat="1" ht="15"/>
-    <row r="297" customFormat="1" ht="15"/>
-    <row r="298" customFormat="1" ht="15"/>
-    <row r="299" customFormat="1" ht="15"/>
-    <row r="300" customFormat="1" ht="15"/>
-    <row r="301" customFormat="1" ht="15"/>
-    <row r="302" customFormat="1" ht="15"/>
-    <row r="303" customFormat="1" ht="15"/>
-    <row r="304" customFormat="1" ht="15"/>
-    <row r="305" customFormat="1" ht="15"/>
-    <row r="306" customFormat="1" ht="15"/>
-    <row r="307" customFormat="1" ht="15"/>
-    <row r="308" customFormat="1" ht="15"/>
-    <row r="309" customFormat="1" ht="15"/>
-    <row r="310" customFormat="1" ht="15"/>
-    <row r="311" customFormat="1" ht="15"/>
-    <row r="312" customFormat="1" ht="15"/>
-    <row r="313" customFormat="1" ht="15"/>
-    <row r="314" customFormat="1" ht="15"/>
-    <row r="315" customFormat="1" ht="15"/>
-    <row r="316" customFormat="1" ht="15"/>
-    <row r="317" customFormat="1" ht="15"/>
-    <row r="318" customFormat="1" ht="15"/>
-    <row r="319" customFormat="1" ht="15"/>
-    <row r="320" customFormat="1" ht="15"/>
-    <row r="321" customFormat="1" ht="15"/>
-    <row r="322" customFormat="1" ht="15"/>
-    <row r="323" customFormat="1" ht="15"/>
-    <row r="324" customFormat="1" ht="15"/>
-    <row r="325" customFormat="1" ht="15"/>
-    <row r="326" customFormat="1" ht="15"/>
-    <row r="327" customFormat="1" ht="15"/>
-    <row r="328" customFormat="1" ht="15"/>
-    <row r="329" customFormat="1" ht="15"/>
-    <row r="330" customFormat="1" ht="15"/>
-    <row r="331" customFormat="1" ht="15"/>
-    <row r="332" customFormat="1" ht="15"/>
-    <row r="333" customFormat="1" ht="15"/>
-    <row r="334" customFormat="1" ht="15"/>
-    <row r="335" customFormat="1" ht="15"/>
-    <row r="336" customFormat="1" ht="15"/>
-    <row r="337" customFormat="1" ht="15"/>
-    <row r="338" customFormat="1" ht="15"/>
-    <row r="339" customFormat="1" ht="15"/>
-    <row r="340" customFormat="1" ht="15"/>
-    <row r="341" customFormat="1" ht="15"/>
-    <row r="342" customFormat="1" ht="15"/>
-    <row r="343" customFormat="1" ht="15"/>
-    <row r="344" customFormat="1" ht="15"/>
-    <row r="345" customFormat="1" ht="15"/>
-    <row r="346" customFormat="1" ht="15"/>
-    <row r="347" customFormat="1" ht="15"/>
-    <row r="348" customFormat="1" ht="15"/>
-    <row r="349" customFormat="1" ht="15"/>
-    <row r="350" customFormat="1" ht="15"/>
-    <row r="351" customFormat="1" ht="15"/>
-    <row r="352" customFormat="1" ht="15"/>
-    <row r="353" customFormat="1" ht="15"/>
-    <row r="354" customFormat="1" ht="15"/>
-    <row r="355" customFormat="1" ht="15"/>
-    <row r="356" customFormat="1" ht="15"/>
-    <row r="357" customFormat="1" ht="15"/>
-    <row r="358" customFormat="1" ht="15"/>
-    <row r="359" customFormat="1" ht="15"/>
-    <row r="360" customFormat="1" ht="15"/>
-    <row r="361" customFormat="1" ht="15"/>
-    <row r="362" customFormat="1" ht="15"/>
-    <row r="363" customFormat="1" ht="15"/>
-    <row r="364" customFormat="1" ht="15"/>
-    <row r="365" customFormat="1" ht="15"/>
-    <row r="366" customFormat="1" ht="15"/>
-    <row r="367" customFormat="1" ht="15"/>
-    <row r="368" customFormat="1" ht="15"/>
-    <row r="369" customFormat="1" ht="15"/>
-    <row r="370" customFormat="1" ht="15"/>
-    <row r="371" customFormat="1" ht="15"/>
-    <row r="372" customFormat="1" ht="15"/>
-    <row r="373" customFormat="1" ht="15"/>
-    <row r="374" customFormat="1" ht="15"/>
-    <row r="375" customFormat="1" ht="15"/>
-    <row r="376" customFormat="1" ht="15"/>
-    <row r="377" customFormat="1" ht="15"/>
-    <row r="378" customFormat="1" ht="15"/>
-    <row r="379" customFormat="1" ht="15"/>
-    <row r="380" customFormat="1" ht="15"/>
-    <row r="381" customFormat="1" ht="15"/>
-    <row r="382" customFormat="1" ht="15"/>
-    <row r="383" customFormat="1" ht="15"/>
-    <row r="384" customFormat="1" ht="15"/>
-    <row r="385" customFormat="1" ht="15"/>
-    <row r="386" customFormat="1" ht="15"/>
-    <row r="387" customFormat="1" ht="15"/>
-    <row r="388" customFormat="1" ht="15"/>
-    <row r="389" customFormat="1" ht="15"/>
-    <row r="390" customFormat="1" ht="15"/>
-    <row r="391" customFormat="1" ht="15"/>
-    <row r="392" customFormat="1" ht="15"/>
-    <row r="393" customFormat="1" ht="15"/>
-    <row r="394" customFormat="1" ht="15"/>
-    <row r="395" customFormat="1" ht="15"/>
-    <row r="396" customFormat="1" ht="15"/>
-    <row r="397" customFormat="1" ht="15"/>
-    <row r="398" customFormat="1" ht="15"/>
-    <row r="399" customFormat="1" ht="15"/>
-    <row r="400" customFormat="1" ht="15"/>
-    <row r="401" customFormat="1" ht="15"/>
-    <row r="402" customFormat="1" ht="15"/>
-    <row r="403" customFormat="1" ht="15"/>
-    <row r="404" customFormat="1" ht="15"/>
-    <row r="405" customFormat="1" ht="15"/>
-    <row r="406" customFormat="1" ht="15"/>
-    <row r="407" customFormat="1" ht="15"/>
-    <row r="408" customFormat="1" ht="15"/>
-    <row r="409" customFormat="1" ht="15"/>
-    <row r="410" customFormat="1" ht="15"/>
-    <row r="411" customFormat="1" ht="15"/>
-    <row r="412" customFormat="1" ht="15"/>
-    <row r="413" customFormat="1" ht="15"/>
-    <row r="414" customFormat="1" ht="15"/>
-    <row r="415" customFormat="1" ht="15"/>
-    <row r="416" customFormat="1" ht="15"/>
-    <row r="417" customFormat="1" ht="15"/>
-    <row r="418" customFormat="1" ht="15"/>
-    <row r="419" customFormat="1" ht="15"/>
-    <row r="420" customFormat="1" ht="15"/>
-    <row r="421" customFormat="1" ht="15"/>
-    <row r="422" customFormat="1" ht="15"/>
-    <row r="423" customFormat="1" ht="15"/>
-    <row r="424" customFormat="1" ht="15"/>
-    <row r="425" customFormat="1" ht="15"/>
-    <row r="426" customFormat="1" ht="15"/>
-    <row r="427" customFormat="1" ht="15"/>
-    <row r="428" customFormat="1" ht="15"/>
-    <row r="429" customFormat="1" ht="15"/>
-    <row r="430" customFormat="1" ht="15"/>
-    <row r="431" customFormat="1" ht="15"/>
-    <row r="432" customFormat="1" ht="15"/>
-    <row r="433" customFormat="1" ht="15"/>
-    <row r="434" customFormat="1" ht="15"/>
-    <row r="435" customFormat="1" ht="15"/>
-    <row r="436" customFormat="1" ht="15"/>
-    <row r="437" customFormat="1" ht="15"/>
-    <row r="438" customFormat="1" ht="15"/>
-    <row r="439" customFormat="1" ht="15"/>
-    <row r="440" customFormat="1" ht="15"/>
-    <row r="441" customFormat="1" ht="15"/>
-    <row r="442" customFormat="1" ht="15"/>
-    <row r="443" customFormat="1" ht="15"/>
-    <row r="444" customFormat="1" ht="15"/>
-    <row r="445" customFormat="1" ht="15"/>
-    <row r="446" customFormat="1" ht="15"/>
-    <row r="447" customFormat="1" ht="15"/>
-    <row r="448" customFormat="1" ht="15"/>
-    <row r="449" customFormat="1" ht="15"/>
-    <row r="450" customFormat="1" ht="15"/>
-    <row r="451" customFormat="1" ht="15"/>
-    <row r="452" customFormat="1" ht="15"/>
-    <row r="453" customFormat="1" ht="15"/>
-    <row r="454" customFormat="1" ht="15"/>
-    <row r="455" customFormat="1" ht="15"/>
-    <row r="456" customFormat="1" ht="15"/>
-    <row r="457" customFormat="1" ht="15"/>
-    <row r="458" customFormat="1" ht="15"/>
-    <row r="459" customFormat="1" ht="15"/>
-    <row r="460" customFormat="1" ht="15"/>
-    <row r="461" customFormat="1" ht="15"/>
-    <row r="462" customFormat="1" ht="15"/>
-    <row r="463" customFormat="1" ht="15"/>
-    <row r="464" customFormat="1" ht="15"/>
-    <row r="465" customFormat="1" ht="15"/>
-    <row r="466" customFormat="1" ht="15"/>
-    <row r="467" customFormat="1" ht="15"/>
-    <row r="468" customFormat="1" ht="15"/>
-    <row r="469" customFormat="1" ht="15"/>
-    <row r="470" customFormat="1" ht="15"/>
-    <row r="471" customFormat="1" ht="15"/>
-    <row r="472" customFormat="1" ht="15"/>
-    <row r="473" customFormat="1" ht="15"/>
-    <row r="474" customFormat="1" ht="15"/>
-    <row r="475" customFormat="1" ht="15"/>
-    <row r="476" customFormat="1" ht="15"/>
-    <row r="477" customFormat="1" ht="15"/>
-    <row r="478" customFormat="1" ht="15"/>
-    <row r="479" customFormat="1" ht="15"/>
-    <row r="480" customFormat="1" ht="15"/>
-    <row r="481" customFormat="1" ht="15"/>
-    <row r="482" customFormat="1" ht="15"/>
-    <row r="483" customFormat="1" ht="15"/>
-    <row r="484" customFormat="1" ht="15"/>
-    <row r="485" customFormat="1" ht="15"/>
-    <row r="486" customFormat="1" ht="15"/>
-    <row r="487" customFormat="1" ht="15"/>
-    <row r="488" customFormat="1" ht="15"/>
-    <row r="489" customFormat="1" ht="15"/>
-    <row r="490" customFormat="1" ht="15"/>
-    <row r="491" customFormat="1" ht="15"/>
-    <row r="492" customFormat="1" ht="15"/>
-    <row r="493" customFormat="1" ht="15"/>
-    <row r="494" customFormat="1" ht="15"/>
-    <row r="495" customFormat="1" ht="15"/>
-    <row r="496" customFormat="1" ht="15"/>
-    <row r="497" customFormat="1" ht="15"/>
-    <row r="498" customFormat="1" ht="15"/>
-    <row r="499" customFormat="1" ht="15"/>
-    <row r="500" customFormat="1" ht="15"/>
-    <row r="501" customFormat="1" ht="15"/>
-    <row r="502" customFormat="1" ht="15"/>
-    <row r="503" customFormat="1" ht="15"/>
-    <row r="504" customFormat="1" ht="15"/>
-    <row r="505" customFormat="1" ht="15"/>
-    <row r="506" customFormat="1" ht="15"/>
-    <row r="507" customFormat="1" ht="15"/>
-    <row r="508" customFormat="1" ht="15"/>
-    <row r="509" customFormat="1" ht="15"/>
-    <row r="510" customFormat="1" ht="15"/>
-    <row r="511" customFormat="1" ht="15"/>
-    <row r="512" customFormat="1" ht="15"/>
-    <row r="513" customFormat="1" ht="15"/>
-    <row r="514" customFormat="1" ht="15"/>
-    <row r="515" customFormat="1" ht="15"/>
-    <row r="516" customFormat="1" ht="15"/>
-    <row r="517" customFormat="1" ht="15"/>
-    <row r="518" customFormat="1" ht="15"/>
-    <row r="519" customFormat="1" ht="15"/>
-    <row r="520" customFormat="1" ht="15"/>
-    <row r="521" customFormat="1" ht="15"/>
-    <row r="522" customFormat="1" ht="15"/>
-    <row r="523" customFormat="1" ht="15"/>
-    <row r="524" customFormat="1" ht="15"/>
-    <row r="525" customFormat="1" ht="15"/>
-    <row r="526" customFormat="1" ht="15"/>
-    <row r="527" customFormat="1" ht="15"/>
-    <row r="528" customFormat="1" ht="15"/>
-    <row r="529" customFormat="1" ht="15"/>
-    <row r="530" customFormat="1" ht="15"/>
-    <row r="531" customFormat="1" ht="15"/>
-    <row r="532" customFormat="1" ht="15"/>
-    <row r="533" customFormat="1" ht="15"/>
-    <row r="534" customFormat="1" ht="15"/>
-    <row r="535" customFormat="1" ht="15"/>
-    <row r="536" customFormat="1" ht="15"/>
-    <row r="537" customFormat="1" ht="15"/>
-    <row r="538" customFormat="1" ht="15"/>
-    <row r="539" customFormat="1" ht="15"/>
-    <row r="540" customFormat="1" ht="15"/>
-    <row r="541" customFormat="1" ht="15"/>
-    <row r="542" customFormat="1" ht="15"/>
-    <row r="543" customFormat="1" ht="15"/>
-    <row r="544" customFormat="1" ht="15"/>
-    <row r="545" customFormat="1" ht="15"/>
-    <row r="546" customFormat="1" ht="15"/>
-    <row r="547" customFormat="1" ht="15"/>
-    <row r="548" customFormat="1" ht="15"/>
-    <row r="549" customFormat="1" ht="15"/>
-    <row r="550" customFormat="1" ht="15"/>
-    <row r="551" customFormat="1" ht="15"/>
-    <row r="552" customFormat="1" ht="15"/>
-    <row r="553" customFormat="1" ht="15"/>
-    <row r="554" customFormat="1" ht="15"/>
-    <row r="555" customFormat="1" ht="15"/>
-    <row r="556" customFormat="1" ht="15"/>
-    <row r="557" customFormat="1" ht="15"/>
-    <row r="558" customFormat="1" ht="15"/>
-    <row r="559" customFormat="1" ht="15"/>
-    <row r="560" customFormat="1" ht="15"/>
-    <row r="561" customFormat="1" ht="15"/>
-    <row r="562" customFormat="1" ht="15"/>
-    <row r="563" customFormat="1" ht="15"/>
-    <row r="564" customFormat="1" ht="15"/>
-    <row r="565" customFormat="1" ht="15"/>
-    <row r="566" customFormat="1" ht="15"/>
-    <row r="567" customFormat="1" ht="15"/>
-    <row r="568" customFormat="1" ht="15"/>
-    <row r="569" customFormat="1" ht="15"/>
-    <row r="570" customFormat="1" ht="15"/>
-    <row r="571" customFormat="1" ht="15"/>
-    <row r="572" customFormat="1" ht="15"/>
-    <row r="573" customFormat="1" ht="15"/>
-    <row r="574" customFormat="1" ht="15"/>
-    <row r="575" customFormat="1" ht="15"/>
-    <row r="576" customFormat="1" ht="15"/>
-    <row r="577" customFormat="1" ht="15"/>
-    <row r="578" customFormat="1" ht="15"/>
-    <row r="579" customFormat="1" ht="15"/>
-    <row r="580" customFormat="1" ht="15"/>
-    <row r="581" customFormat="1" ht="15"/>
-    <row r="582" customFormat="1" ht="15"/>
-    <row r="583" customFormat="1" ht="15"/>
-    <row r="584" customFormat="1" ht="15"/>
-    <row r="585" customFormat="1" ht="15"/>
-    <row r="586" customFormat="1" ht="15"/>
-    <row r="587" customFormat="1" ht="15"/>
-    <row r="588" customFormat="1" ht="15"/>
-    <row r="589" customFormat="1" ht="15"/>
-    <row r="590" customFormat="1" ht="15"/>
-    <row r="591" customFormat="1" ht="15"/>
-    <row r="592" customFormat="1" ht="15"/>
-    <row r="593" customFormat="1" ht="15"/>
-    <row r="594" customFormat="1" ht="15"/>
-    <row r="595" customFormat="1" ht="15"/>
+        <v>156</v>
+      </c>
+      <c r="U31" s="76"/>
+    </row>
+    <row r="32" spans="1:24" s="1" customFormat="1">
+      <c r="M32" s="71"/>
+      <c r="U32" s="76"/>
+    </row>
+    <row r="33" spans="13:21" s="1" customFormat="1">
+      <c r="M33" s="71"/>
+      <c r="U33" s="76"/>
+    </row>
+    <row r="34" spans="13:21" s="1" customFormat="1">
+      <c r="M34" s="71"/>
+      <c r="U34" s="76"/>
+    </row>
+    <row r="35" spans="13:21" customFormat="1" ht="15">
+      <c r="M35" s="74"/>
+      <c r="U35" s="83"/>
+    </row>
+    <row r="36" spans="13:21" customFormat="1" ht="15">
+      <c r="M36" s="74"/>
+      <c r="U36" s="83"/>
+    </row>
+    <row r="37" spans="13:21" customFormat="1" ht="15">
+      <c r="M37" s="74"/>
+      <c r="U37" s="83"/>
+    </row>
+    <row r="38" spans="13:21" customFormat="1" ht="15">
+      <c r="M38" s="74"/>
+      <c r="U38" s="83"/>
+    </row>
+    <row r="39" spans="13:21" customFormat="1" ht="15">
+      <c r="M39" s="74"/>
+      <c r="U39" s="83"/>
+    </row>
+    <row r="40" spans="13:21" customFormat="1" ht="15">
+      <c r="M40" s="74"/>
+      <c r="U40" s="83"/>
+    </row>
+    <row r="41" spans="13:21" customFormat="1" ht="15">
+      <c r="M41" s="74"/>
+      <c r="U41" s="83"/>
+    </row>
+    <row r="42" spans="13:21" customFormat="1" ht="15">
+      <c r="M42" s="74"/>
+      <c r="U42" s="83"/>
+    </row>
+    <row r="43" spans="13:21" customFormat="1" ht="15">
+      <c r="M43" s="74"/>
+      <c r="U43" s="83"/>
+    </row>
+    <row r="44" spans="13:21" customFormat="1" ht="15">
+      <c r="M44" s="74"/>
+      <c r="U44" s="83"/>
+    </row>
+    <row r="45" spans="13:21" customFormat="1" ht="15">
+      <c r="M45" s="74"/>
+      <c r="U45" s="83"/>
+    </row>
+    <row r="46" spans="13:21" customFormat="1" ht="15">
+      <c r="M46" s="74"/>
+      <c r="U46" s="83"/>
+    </row>
+    <row r="47" spans="13:21" customFormat="1" ht="15">
+      <c r="M47" s="74"/>
+      <c r="U47" s="83"/>
+    </row>
+    <row r="48" spans="13:21" customFormat="1" ht="15">
+      <c r="M48" s="74"/>
+      <c r="U48" s="83"/>
+    </row>
+    <row r="49" spans="13:21" customFormat="1" ht="15">
+      <c r="M49" s="74"/>
+      <c r="U49" s="83"/>
+    </row>
+    <row r="50" spans="13:21" customFormat="1" ht="15">
+      <c r="M50" s="74"/>
+      <c r="U50" s="83"/>
+    </row>
+    <row r="51" spans="13:21" customFormat="1" ht="15">
+      <c r="M51" s="74"/>
+      <c r="U51" s="83"/>
+    </row>
+    <row r="52" spans="13:21" customFormat="1" ht="15">
+      <c r="M52" s="74"/>
+      <c r="U52" s="83"/>
+    </row>
+    <row r="53" spans="13:21" customFormat="1" ht="15">
+      <c r="M53" s="74"/>
+      <c r="U53" s="83"/>
+    </row>
+    <row r="54" spans="13:21" customFormat="1" ht="15">
+      <c r="M54" s="74"/>
+      <c r="U54" s="83"/>
+    </row>
+    <row r="55" spans="13:21" customFormat="1" ht="15">
+      <c r="M55" s="74"/>
+      <c r="U55" s="83"/>
+    </row>
+    <row r="56" spans="13:21" customFormat="1" ht="15">
+      <c r="M56" s="74"/>
+      <c r="U56" s="83"/>
+    </row>
+    <row r="57" spans="13:21" customFormat="1" ht="15">
+      <c r="M57" s="74"/>
+      <c r="U57" s="83"/>
+    </row>
+    <row r="58" spans="13:21" customFormat="1" ht="15">
+      <c r="M58" s="74"/>
+      <c r="U58" s="83"/>
+    </row>
+    <row r="59" spans="13:21" customFormat="1" ht="15">
+      <c r="M59" s="74"/>
+      <c r="U59" s="83"/>
+    </row>
+    <row r="60" spans="13:21" customFormat="1" ht="15">
+      <c r="M60" s="74"/>
+      <c r="U60" s="83"/>
+    </row>
+    <row r="61" spans="13:21" customFormat="1" ht="15">
+      <c r="M61" s="74"/>
+      <c r="U61" s="83"/>
+    </row>
+    <row r="62" spans="13:21" customFormat="1" ht="15">
+      <c r="M62" s="74"/>
+      <c r="U62" s="83"/>
+    </row>
+    <row r="63" spans="13:21" customFormat="1" ht="15">
+      <c r="M63" s="74"/>
+      <c r="U63" s="83"/>
+    </row>
+    <row r="64" spans="13:21" customFormat="1" ht="15">
+      <c r="M64" s="74"/>
+      <c r="U64" s="83"/>
+    </row>
+    <row r="65" spans="13:21" customFormat="1" ht="15">
+      <c r="M65" s="74"/>
+      <c r="U65" s="83"/>
+    </row>
+    <row r="66" spans="13:21" customFormat="1" ht="15">
+      <c r="M66" s="74"/>
+      <c r="U66" s="83"/>
+    </row>
+    <row r="67" spans="13:21" customFormat="1" ht="15">
+      <c r="M67" s="74"/>
+      <c r="U67" s="83"/>
+    </row>
+    <row r="68" spans="13:21" customFormat="1" ht="15">
+      <c r="M68" s="74"/>
+      <c r="U68" s="83"/>
+    </row>
+    <row r="69" spans="13:21" customFormat="1" ht="15">
+      <c r="M69" s="74"/>
+      <c r="U69" s="83"/>
+    </row>
+    <row r="70" spans="13:21" customFormat="1" ht="15">
+      <c r="M70" s="74"/>
+      <c r="U70" s="83"/>
+    </row>
+    <row r="71" spans="13:21" customFormat="1" ht="15">
+      <c r="M71" s="74"/>
+      <c r="U71" s="83"/>
+    </row>
+    <row r="72" spans="13:21" customFormat="1" ht="15">
+      <c r="M72" s="74"/>
+      <c r="U72" s="83"/>
+    </row>
+    <row r="73" spans="13:21" customFormat="1" ht="15">
+      <c r="M73" s="74"/>
+      <c r="U73" s="83"/>
+    </row>
+    <row r="74" spans="13:21" customFormat="1" ht="15">
+      <c r="M74" s="74"/>
+      <c r="U74" s="83"/>
+    </row>
+    <row r="75" spans="13:21" customFormat="1" ht="15">
+      <c r="M75" s="74"/>
+      <c r="U75" s="83"/>
+    </row>
+    <row r="76" spans="13:21" customFormat="1" ht="15">
+      <c r="M76" s="74"/>
+      <c r="U76" s="83"/>
+    </row>
+    <row r="77" spans="13:21" customFormat="1" ht="15">
+      <c r="M77" s="74"/>
+      <c r="U77" s="83"/>
+    </row>
+    <row r="78" spans="13:21" customFormat="1" ht="15">
+      <c r="M78" s="74"/>
+      <c r="U78" s="83"/>
+    </row>
+    <row r="79" spans="13:21" customFormat="1" ht="15">
+      <c r="M79" s="74"/>
+      <c r="U79" s="83"/>
+    </row>
+    <row r="80" spans="13:21" customFormat="1" ht="15">
+      <c r="M80" s="74"/>
+      <c r="U80" s="83"/>
+    </row>
+    <row r="81" spans="13:21" customFormat="1" ht="15">
+      <c r="M81" s="74"/>
+      <c r="U81" s="83"/>
+    </row>
+    <row r="82" spans="13:21" customFormat="1" ht="15">
+      <c r="M82" s="74"/>
+      <c r="U82" s="83"/>
+    </row>
+    <row r="83" spans="13:21" customFormat="1" ht="15">
+      <c r="M83" s="74"/>
+      <c r="U83" s="83"/>
+    </row>
+    <row r="84" spans="13:21" customFormat="1" ht="15">
+      <c r="M84" s="74"/>
+      <c r="U84" s="83"/>
+    </row>
+    <row r="85" spans="13:21" customFormat="1" ht="15">
+      <c r="M85" s="74"/>
+      <c r="U85" s="83"/>
+    </row>
+    <row r="86" spans="13:21" customFormat="1" ht="15">
+      <c r="M86" s="74"/>
+      <c r="U86" s="83"/>
+    </row>
+    <row r="87" spans="13:21" customFormat="1" ht="15">
+      <c r="M87" s="74"/>
+      <c r="U87" s="83"/>
+    </row>
+    <row r="88" spans="13:21" customFormat="1" ht="15">
+      <c r="M88" s="74"/>
+      <c r="U88" s="83"/>
+    </row>
+    <row r="89" spans="13:21" customFormat="1" ht="15">
+      <c r="M89" s="74"/>
+      <c r="U89" s="83"/>
+    </row>
+    <row r="90" spans="13:21" customFormat="1" ht="15">
+      <c r="M90" s="74"/>
+      <c r="U90" s="83"/>
+    </row>
+    <row r="91" spans="13:21" customFormat="1" ht="15">
+      <c r="M91" s="74"/>
+      <c r="U91" s="83"/>
+    </row>
+    <row r="92" spans="13:21" customFormat="1" ht="15">
+      <c r="M92" s="74"/>
+      <c r="U92" s="83"/>
+    </row>
+    <row r="93" spans="13:21" customFormat="1" ht="15">
+      <c r="M93" s="74"/>
+      <c r="U93" s="83"/>
+    </row>
+    <row r="94" spans="13:21" customFormat="1" ht="15">
+      <c r="M94" s="74"/>
+      <c r="U94" s="83"/>
+    </row>
+    <row r="95" spans="13:21" customFormat="1" ht="15">
+      <c r="M95" s="74"/>
+      <c r="U95" s="83"/>
+    </row>
+    <row r="96" spans="13:21" customFormat="1" ht="15">
+      <c r="M96" s="74"/>
+      <c r="U96" s="83"/>
+    </row>
+    <row r="97" spans="13:21" customFormat="1" ht="15">
+      <c r="M97" s="74"/>
+      <c r="U97" s="83"/>
+    </row>
+    <row r="98" spans="13:21" customFormat="1" ht="15">
+      <c r="M98" s="74"/>
+      <c r="U98" s="83"/>
+    </row>
+    <row r="99" spans="13:21" customFormat="1" ht="15">
+      <c r="M99" s="74"/>
+      <c r="U99" s="83"/>
+    </row>
+    <row r="100" spans="13:21" customFormat="1" ht="15">
+      <c r="M100" s="74"/>
+      <c r="U100" s="83"/>
+    </row>
+    <row r="101" spans="13:21" customFormat="1" ht="15">
+      <c r="M101" s="74"/>
+      <c r="U101" s="83"/>
+    </row>
+    <row r="102" spans="13:21" customFormat="1" ht="15">
+      <c r="M102" s="74"/>
+      <c r="U102" s="83"/>
+    </row>
+    <row r="103" spans="13:21" customFormat="1" ht="15">
+      <c r="M103" s="74"/>
+      <c r="U103" s="83"/>
+    </row>
+    <row r="104" spans="13:21" customFormat="1" ht="15">
+      <c r="M104" s="74"/>
+      <c r="U104" s="83"/>
+    </row>
+    <row r="105" spans="13:21" customFormat="1" ht="15">
+      <c r="M105" s="74"/>
+      <c r="U105" s="83"/>
+    </row>
+    <row r="106" spans="13:21" customFormat="1" ht="15">
+      <c r="M106" s="74"/>
+      <c r="U106" s="83"/>
+    </row>
+    <row r="107" spans="13:21" customFormat="1" ht="15">
+      <c r="M107" s="74"/>
+      <c r="U107" s="83"/>
+    </row>
+    <row r="108" spans="13:21" customFormat="1" ht="15">
+      <c r="M108" s="74"/>
+      <c r="U108" s="83"/>
+    </row>
+    <row r="109" spans="13:21" customFormat="1" ht="15">
+      <c r="M109" s="74"/>
+      <c r="U109" s="83"/>
+    </row>
+    <row r="110" spans="13:21" customFormat="1" ht="15">
+      <c r="M110" s="74"/>
+      <c r="U110" s="83"/>
+    </row>
+    <row r="111" spans="13:21" customFormat="1" ht="15">
+      <c r="M111" s="74"/>
+      <c r="U111" s="83"/>
+    </row>
+    <row r="112" spans="13:21" customFormat="1" ht="15">
+      <c r="M112" s="74"/>
+      <c r="U112" s="83"/>
+    </row>
+    <row r="113" spans="13:21" customFormat="1" ht="15">
+      <c r="M113" s="74"/>
+      <c r="U113" s="83"/>
+    </row>
+    <row r="114" spans="13:21" customFormat="1" ht="15">
+      <c r="M114" s="74"/>
+      <c r="U114" s="83"/>
+    </row>
+    <row r="115" spans="13:21" customFormat="1" ht="15">
+      <c r="M115" s="74"/>
+      <c r="U115" s="83"/>
+    </row>
+    <row r="116" spans="13:21" customFormat="1" ht="15">
+      <c r="M116" s="74"/>
+      <c r="U116" s="83"/>
+    </row>
+    <row r="117" spans="13:21" customFormat="1" ht="15">
+      <c r="M117" s="74"/>
+      <c r="U117" s="83"/>
+    </row>
+    <row r="118" spans="13:21" customFormat="1" ht="15">
+      <c r="M118" s="74"/>
+      <c r="U118" s="83"/>
+    </row>
+    <row r="119" spans="13:21" customFormat="1" ht="15">
+      <c r="M119" s="74"/>
+      <c r="U119" s="83"/>
+    </row>
+    <row r="120" spans="13:21" customFormat="1" ht="15">
+      <c r="M120" s="74"/>
+      <c r="U120" s="83"/>
+    </row>
+    <row r="121" spans="13:21" customFormat="1" ht="15">
+      <c r="M121" s="74"/>
+      <c r="U121" s="83"/>
+    </row>
+    <row r="122" spans="13:21" customFormat="1" ht="15">
+      <c r="M122" s="74"/>
+      <c r="U122" s="83"/>
+    </row>
+    <row r="123" spans="13:21" customFormat="1" ht="15">
+      <c r="M123" s="74"/>
+      <c r="U123" s="83"/>
+    </row>
+    <row r="124" spans="13:21" customFormat="1" ht="15">
+      <c r="M124" s="74"/>
+      <c r="U124" s="83"/>
+    </row>
+    <row r="125" spans="13:21" customFormat="1" ht="15">
+      <c r="M125" s="74"/>
+      <c r="U125" s="83"/>
+    </row>
+    <row r="126" spans="13:21" customFormat="1" ht="15">
+      <c r="M126" s="74"/>
+      <c r="U126" s="83"/>
+    </row>
+    <row r="127" spans="13:21" customFormat="1" ht="15">
+      <c r="M127" s="74"/>
+      <c r="U127" s="83"/>
+    </row>
+    <row r="128" spans="13:21" customFormat="1" ht="15">
+      <c r="M128" s="74"/>
+      <c r="U128" s="83"/>
+    </row>
+    <row r="129" spans="13:21" customFormat="1" ht="15">
+      <c r="M129" s="74"/>
+      <c r="U129" s="83"/>
+    </row>
+    <row r="130" spans="13:21" customFormat="1" ht="15">
+      <c r="M130" s="74"/>
+      <c r="U130" s="83"/>
+    </row>
+    <row r="131" spans="13:21" customFormat="1" ht="15">
+      <c r="M131" s="74"/>
+      <c r="U131" s="83"/>
+    </row>
+    <row r="132" spans="13:21" customFormat="1" ht="15">
+      <c r="M132" s="74"/>
+      <c r="U132" s="83"/>
+    </row>
+    <row r="133" spans="13:21" customFormat="1" ht="15">
+      <c r="M133" s="74"/>
+      <c r="U133" s="83"/>
+    </row>
+    <row r="134" spans="13:21" customFormat="1" ht="15">
+      <c r="M134" s="74"/>
+      <c r="U134" s="83"/>
+    </row>
+    <row r="135" spans="13:21" customFormat="1" ht="15">
+      <c r="M135" s="74"/>
+      <c r="U135" s="83"/>
+    </row>
+    <row r="136" spans="13:21" customFormat="1" ht="15">
+      <c r="M136" s="74"/>
+      <c r="U136" s="83"/>
+    </row>
+    <row r="137" spans="13:21" customFormat="1" ht="15">
+      <c r="M137" s="74"/>
+      <c r="U137" s="83"/>
+    </row>
+    <row r="138" spans="13:21" customFormat="1" ht="15">
+      <c r="M138" s="74"/>
+      <c r="U138" s="83"/>
+    </row>
+    <row r="139" spans="13:21" customFormat="1" ht="15">
+      <c r="M139" s="74"/>
+      <c r="U139" s="83"/>
+    </row>
+    <row r="140" spans="13:21" customFormat="1" ht="15">
+      <c r="M140" s="74"/>
+      <c r="U140" s="83"/>
+    </row>
+    <row r="141" spans="13:21" customFormat="1" ht="15">
+      <c r="M141" s="74"/>
+      <c r="U141" s="83"/>
+    </row>
+    <row r="142" spans="13:21" customFormat="1" ht="15">
+      <c r="M142" s="74"/>
+      <c r="U142" s="83"/>
+    </row>
+    <row r="143" spans="13:21" customFormat="1" ht="15">
+      <c r="M143" s="74"/>
+      <c r="U143" s="83"/>
+    </row>
+    <row r="144" spans="13:21" customFormat="1" ht="15">
+      <c r="M144" s="74"/>
+      <c r="U144" s="83"/>
+    </row>
+    <row r="145" spans="13:21" customFormat="1" ht="15">
+      <c r="M145" s="74"/>
+      <c r="U145" s="83"/>
+    </row>
+    <row r="146" spans="13:21" customFormat="1" ht="15">
+      <c r="M146" s="74"/>
+      <c r="U146" s="83"/>
+    </row>
+    <row r="147" spans="13:21" customFormat="1" ht="15">
+      <c r="M147" s="74"/>
+      <c r="U147" s="83"/>
+    </row>
+    <row r="148" spans="13:21" customFormat="1" ht="15">
+      <c r="M148" s="74"/>
+      <c r="U148" s="83"/>
+    </row>
+    <row r="149" spans="13:21" customFormat="1" ht="15">
+      <c r="M149" s="74"/>
+      <c r="U149" s="83"/>
+    </row>
+    <row r="150" spans="13:21" customFormat="1" ht="15">
+      <c r="M150" s="74"/>
+      <c r="U150" s="83"/>
+    </row>
+    <row r="151" spans="13:21" customFormat="1" ht="15">
+      <c r="M151" s="74"/>
+      <c r="U151" s="83"/>
+    </row>
+    <row r="152" spans="13:21" customFormat="1" ht="15">
+      <c r="M152" s="74"/>
+      <c r="U152" s="83"/>
+    </row>
+    <row r="153" spans="13:21" customFormat="1" ht="15">
+      <c r="M153" s="74"/>
+      <c r="U153" s="83"/>
+    </row>
+    <row r="154" spans="13:21" customFormat="1" ht="15">
+      <c r="M154" s="74"/>
+      <c r="U154" s="83"/>
+    </row>
+    <row r="155" spans="13:21" customFormat="1" ht="15">
+      <c r="M155" s="74"/>
+      <c r="U155" s="83"/>
+    </row>
+    <row r="156" spans="13:21" customFormat="1" ht="15">
+      <c r="M156" s="74"/>
+      <c r="U156" s="83"/>
+    </row>
+    <row r="157" spans="13:21" customFormat="1" ht="15">
+      <c r="M157" s="74"/>
+      <c r="U157" s="83"/>
+    </row>
+    <row r="158" spans="13:21" customFormat="1" ht="15">
+      <c r="M158" s="74"/>
+      <c r="U158" s="83"/>
+    </row>
+    <row r="159" spans="13:21" customFormat="1" ht="15">
+      <c r="M159" s="74"/>
+      <c r="U159" s="83"/>
+    </row>
+    <row r="160" spans="13:21" customFormat="1" ht="15">
+      <c r="M160" s="74"/>
+      <c r="U160" s="83"/>
+    </row>
+    <row r="161" spans="13:21" customFormat="1" ht="15">
+      <c r="M161" s="74"/>
+      <c r="U161" s="83"/>
+    </row>
+    <row r="162" spans="13:21" customFormat="1" ht="15">
+      <c r="M162" s="74"/>
+      <c r="U162" s="83"/>
+    </row>
+    <row r="163" spans="13:21" customFormat="1" ht="15">
+      <c r="M163" s="74"/>
+      <c r="U163" s="83"/>
+    </row>
+    <row r="164" spans="13:21" customFormat="1" ht="15">
+      <c r="M164" s="74"/>
+      <c r="U164" s="83"/>
+    </row>
+    <row r="165" spans="13:21" customFormat="1" ht="15">
+      <c r="M165" s="74"/>
+      <c r="U165" s="83"/>
+    </row>
+    <row r="166" spans="13:21" customFormat="1" ht="15">
+      <c r="M166" s="74"/>
+      <c r="U166" s="83"/>
+    </row>
+    <row r="167" spans="13:21" customFormat="1" ht="15">
+      <c r="M167" s="74"/>
+      <c r="U167" s="83"/>
+    </row>
+    <row r="168" spans="13:21" customFormat="1" ht="15">
+      <c r="M168" s="74"/>
+      <c r="U168" s="83"/>
+    </row>
+    <row r="169" spans="13:21" customFormat="1" ht="15">
+      <c r="M169" s="74"/>
+      <c r="U169" s="83"/>
+    </row>
+    <row r="170" spans="13:21" customFormat="1" ht="15">
+      <c r="M170" s="74"/>
+      <c r="U170" s="83"/>
+    </row>
+    <row r="171" spans="13:21" customFormat="1" ht="15">
+      <c r="M171" s="74"/>
+      <c r="U171" s="83"/>
+    </row>
+    <row r="172" spans="13:21" customFormat="1" ht="15">
+      <c r="M172" s="74"/>
+      <c r="U172" s="83"/>
+    </row>
+    <row r="173" spans="13:21" customFormat="1" ht="15">
+      <c r="M173" s="74"/>
+      <c r="U173" s="83"/>
+    </row>
+    <row r="174" spans="13:21" customFormat="1" ht="15">
+      <c r="M174" s="74"/>
+      <c r="U174" s="83"/>
+    </row>
+    <row r="175" spans="13:21" customFormat="1" ht="15">
+      <c r="M175" s="74"/>
+      <c r="U175" s="83"/>
+    </row>
+    <row r="176" spans="13:21" customFormat="1" ht="15">
+      <c r="M176" s="74"/>
+      <c r="U176" s="83"/>
+    </row>
+    <row r="177" spans="13:21" customFormat="1" ht="15">
+      <c r="M177" s="74"/>
+      <c r="U177" s="83"/>
+    </row>
+    <row r="178" spans="13:21" customFormat="1" ht="15">
+      <c r="M178" s="74"/>
+      <c r="U178" s="83"/>
+    </row>
+    <row r="179" spans="13:21" customFormat="1" ht="15">
+      <c r="M179" s="74"/>
+      <c r="U179" s="83"/>
+    </row>
+    <row r="180" spans="13:21" customFormat="1" ht="15">
+      <c r="M180" s="74"/>
+      <c r="U180" s="83"/>
+    </row>
+    <row r="181" spans="13:21" customFormat="1" ht="15">
+      <c r="M181" s="74"/>
+      <c r="U181" s="83"/>
+    </row>
+    <row r="182" spans="13:21" customFormat="1" ht="15">
+      <c r="M182" s="74"/>
+      <c r="U182" s="83"/>
+    </row>
+    <row r="183" spans="13:21" customFormat="1" ht="15">
+      <c r="M183" s="74"/>
+      <c r="U183" s="83"/>
+    </row>
+    <row r="184" spans="13:21" customFormat="1" ht="15">
+      <c r="M184" s="74"/>
+      <c r="U184" s="83"/>
+    </row>
+    <row r="185" spans="13:21" customFormat="1" ht="15">
+      <c r="M185" s="74"/>
+      <c r="U185" s="83"/>
+    </row>
+    <row r="186" spans="13:21" customFormat="1" ht="15">
+      <c r="M186" s="74"/>
+      <c r="U186" s="83"/>
+    </row>
+    <row r="187" spans="13:21" customFormat="1" ht="15">
+      <c r="M187" s="74"/>
+      <c r="U187" s="83"/>
+    </row>
+    <row r="188" spans="13:21" customFormat="1" ht="15">
+      <c r="M188" s="74"/>
+      <c r="U188" s="83"/>
+    </row>
+    <row r="189" spans="13:21" customFormat="1" ht="15">
+      <c r="M189" s="74"/>
+      <c r="U189" s="83"/>
+    </row>
+    <row r="190" spans="13:21" customFormat="1" ht="15">
+      <c r="M190" s="74"/>
+      <c r="U190" s="83"/>
+    </row>
+    <row r="191" spans="13:21" customFormat="1" ht="15">
+      <c r="M191" s="74"/>
+      <c r="U191" s="83"/>
+    </row>
+    <row r="192" spans="13:21" customFormat="1" ht="15">
+      <c r="M192" s="74"/>
+      <c r="U192" s="83"/>
+    </row>
+    <row r="193" spans="13:21" customFormat="1" ht="15">
+      <c r="M193" s="74"/>
+      <c r="U193" s="83"/>
+    </row>
+    <row r="194" spans="13:21" customFormat="1" ht="15">
+      <c r="M194" s="74"/>
+      <c r="U194" s="83"/>
+    </row>
+    <row r="195" spans="13:21" customFormat="1" ht="15">
+      <c r="M195" s="74"/>
+      <c r="U195" s="83"/>
+    </row>
+    <row r="196" spans="13:21" customFormat="1" ht="15">
+      <c r="M196" s="74"/>
+      <c r="U196" s="83"/>
+    </row>
+    <row r="197" spans="13:21" customFormat="1" ht="15">
+      <c r="M197" s="74"/>
+      <c r="U197" s="83"/>
+    </row>
+    <row r="198" spans="13:21" customFormat="1" ht="15">
+      <c r="M198" s="74"/>
+      <c r="U198" s="83"/>
+    </row>
+    <row r="199" spans="13:21" customFormat="1" ht="15">
+      <c r="M199" s="74"/>
+      <c r="U199" s="83"/>
+    </row>
+    <row r="200" spans="13:21" customFormat="1" ht="15">
+      <c r="M200" s="74"/>
+      <c r="U200" s="83"/>
+    </row>
+    <row r="201" spans="13:21" customFormat="1" ht="15">
+      <c r="M201" s="74"/>
+      <c r="U201" s="83"/>
+    </row>
+    <row r="202" spans="13:21" customFormat="1" ht="15">
+      <c r="M202" s="74"/>
+      <c r="U202" s="83"/>
+    </row>
+    <row r="203" spans="13:21" customFormat="1" ht="15">
+      <c r="M203" s="74"/>
+      <c r="U203" s="83"/>
+    </row>
+    <row r="204" spans="13:21" customFormat="1" ht="15">
+      <c r="M204" s="74"/>
+      <c r="U204" s="83"/>
+    </row>
+    <row r="205" spans="13:21" customFormat="1" ht="15">
+      <c r="M205" s="74"/>
+      <c r="U205" s="83"/>
+    </row>
+    <row r="206" spans="13:21" customFormat="1" ht="15">
+      <c r="M206" s="74"/>
+      <c r="U206" s="83"/>
+    </row>
+    <row r="207" spans="13:21" customFormat="1" ht="15">
+      <c r="M207" s="74"/>
+      <c r="U207" s="83"/>
+    </row>
+    <row r="208" spans="13:21" customFormat="1" ht="15">
+      <c r="M208" s="74"/>
+      <c r="U208" s="83"/>
+    </row>
+    <row r="209" spans="13:21" customFormat="1" ht="15">
+      <c r="M209" s="74"/>
+      <c r="U209" s="83"/>
+    </row>
+    <row r="210" spans="13:21" customFormat="1" ht="15">
+      <c r="M210" s="74"/>
+      <c r="U210" s="83"/>
+    </row>
+    <row r="211" spans="13:21" customFormat="1" ht="15">
+      <c r="M211" s="74"/>
+      <c r="U211" s="83"/>
+    </row>
+    <row r="212" spans="13:21" customFormat="1" ht="15">
+      <c r="M212" s="74"/>
+      <c r="U212" s="83"/>
+    </row>
+    <row r="213" spans="13:21" customFormat="1" ht="15">
+      <c r="M213" s="74"/>
+      <c r="U213" s="83"/>
+    </row>
+    <row r="214" spans="13:21" customFormat="1" ht="15">
+      <c r="M214" s="74"/>
+      <c r="U214" s="83"/>
+    </row>
+    <row r="215" spans="13:21" customFormat="1" ht="15">
+      <c r="M215" s="74"/>
+      <c r="U215" s="83"/>
+    </row>
+    <row r="216" spans="13:21" customFormat="1" ht="15">
+      <c r="M216" s="74"/>
+      <c r="U216" s="83"/>
+    </row>
+    <row r="217" spans="13:21" customFormat="1" ht="15">
+      <c r="M217" s="74"/>
+      <c r="U217" s="83"/>
+    </row>
+    <row r="218" spans="13:21" customFormat="1" ht="15">
+      <c r="M218" s="74"/>
+      <c r="U218" s="83"/>
+    </row>
+    <row r="219" spans="13:21" customFormat="1" ht="15">
+      <c r="M219" s="74"/>
+      <c r="U219" s="83"/>
+    </row>
+    <row r="220" spans="13:21" customFormat="1" ht="15">
+      <c r="M220" s="74"/>
+      <c r="U220" s="83"/>
+    </row>
+    <row r="221" spans="13:21" customFormat="1" ht="15">
+      <c r="M221" s="74"/>
+      <c r="U221" s="83"/>
+    </row>
+    <row r="222" spans="13:21" customFormat="1" ht="15">
+      <c r="M222" s="74"/>
+      <c r="U222" s="83"/>
+    </row>
+    <row r="223" spans="13:21" customFormat="1" ht="15">
+      <c r="M223" s="74"/>
+      <c r="U223" s="83"/>
+    </row>
+    <row r="224" spans="13:21" customFormat="1" ht="15">
+      <c r="M224" s="74"/>
+      <c r="U224" s="83"/>
+    </row>
+    <row r="225" spans="13:21" customFormat="1" ht="15">
+      <c r="M225" s="74"/>
+      <c r="U225" s="83"/>
+    </row>
+    <row r="226" spans="13:21" customFormat="1" ht="15">
+      <c r="M226" s="74"/>
+      <c r="U226" s="83"/>
+    </row>
+    <row r="227" spans="13:21" customFormat="1" ht="15">
+      <c r="M227" s="74"/>
+      <c r="U227" s="83"/>
+    </row>
+    <row r="228" spans="13:21" customFormat="1" ht="15">
+      <c r="M228" s="74"/>
+      <c r="U228" s="83"/>
+    </row>
+    <row r="229" spans="13:21" customFormat="1" ht="15">
+      <c r="M229" s="74"/>
+      <c r="U229" s="83"/>
+    </row>
+    <row r="230" spans="13:21" customFormat="1" ht="15">
+      <c r="M230" s="74"/>
+      <c r="U230" s="83"/>
+    </row>
+    <row r="231" spans="13:21" customFormat="1" ht="15">
+      <c r="M231" s="74"/>
+      <c r="U231" s="83"/>
+    </row>
+    <row r="232" spans="13:21" customFormat="1" ht="15">
+      <c r="M232" s="74"/>
+      <c r="U232" s="83"/>
+    </row>
+    <row r="233" spans="13:21" customFormat="1" ht="15">
+      <c r="M233" s="74"/>
+      <c r="U233" s="83"/>
+    </row>
+    <row r="234" spans="13:21" customFormat="1" ht="15">
+      <c r="M234" s="74"/>
+      <c r="U234" s="83"/>
+    </row>
+    <row r="235" spans="13:21" customFormat="1" ht="15">
+      <c r="M235" s="74"/>
+      <c r="U235" s="83"/>
+    </row>
+    <row r="236" spans="13:21" customFormat="1" ht="15">
+      <c r="M236" s="74"/>
+      <c r="U236" s="83"/>
+    </row>
+    <row r="237" spans="13:21" customFormat="1" ht="15">
+      <c r="M237" s="74"/>
+      <c r="U237" s="83"/>
+    </row>
+    <row r="238" spans="13:21" customFormat="1" ht="15">
+      <c r="M238" s="74"/>
+      <c r="U238" s="83"/>
+    </row>
+    <row r="239" spans="13:21" customFormat="1" ht="15">
+      <c r="M239" s="74"/>
+      <c r="U239" s="83"/>
+    </row>
+    <row r="240" spans="13:21" customFormat="1" ht="15">
+      <c r="M240" s="74"/>
+      <c r="U240" s="83"/>
+    </row>
+    <row r="241" spans="13:21" customFormat="1" ht="15">
+      <c r="M241" s="74"/>
+      <c r="U241" s="83"/>
+    </row>
+    <row r="242" spans="13:21" customFormat="1" ht="15">
+      <c r="M242" s="74"/>
+      <c r="U242" s="83"/>
+    </row>
+    <row r="243" spans="13:21" customFormat="1" ht="15">
+      <c r="M243" s="74"/>
+      <c r="U243" s="83"/>
+    </row>
+    <row r="244" spans="13:21" customFormat="1" ht="15">
+      <c r="M244" s="74"/>
+      <c r="U244" s="83"/>
+    </row>
+    <row r="245" spans="13:21" customFormat="1" ht="15">
+      <c r="M245" s="74"/>
+      <c r="U245" s="83"/>
+    </row>
+    <row r="246" spans="13:21" customFormat="1" ht="15">
+      <c r="M246" s="74"/>
+      <c r="U246" s="83"/>
+    </row>
+    <row r="247" spans="13:21" customFormat="1" ht="15">
+      <c r="M247" s="74"/>
+      <c r="U247" s="83"/>
+    </row>
+    <row r="248" spans="13:21" customFormat="1" ht="15">
+      <c r="M248" s="74"/>
+      <c r="U248" s="83"/>
+    </row>
+    <row r="249" spans="13:21" customFormat="1" ht="15">
+      <c r="M249" s="74"/>
+      <c r="U249" s="83"/>
+    </row>
+    <row r="250" spans="13:21" customFormat="1" ht="15">
+      <c r="M250" s="74"/>
+      <c r="U250" s="83"/>
+    </row>
+    <row r="251" spans="13:21" customFormat="1" ht="15">
+      <c r="M251" s="74"/>
+      <c r="U251" s="83"/>
+    </row>
+    <row r="252" spans="13:21" customFormat="1" ht="15">
+      <c r="M252" s="74"/>
+      <c r="U252" s="83"/>
+    </row>
+    <row r="253" spans="13:21" customFormat="1" ht="15">
+      <c r="M253" s="74"/>
+      <c r="U253" s="83"/>
+    </row>
+    <row r="254" spans="13:21" customFormat="1" ht="15">
+      <c r="M254" s="74"/>
+      <c r="U254" s="83"/>
+    </row>
+    <row r="255" spans="13:21" customFormat="1" ht="15">
+      <c r="M255" s="74"/>
+      <c r="U255" s="83"/>
+    </row>
+    <row r="256" spans="13:21" customFormat="1" ht="15">
+      <c r="M256" s="74"/>
+      <c r="U256" s="83"/>
+    </row>
+    <row r="257" spans="13:21" customFormat="1" ht="15">
+      <c r="M257" s="74"/>
+      <c r="U257" s="83"/>
+    </row>
+    <row r="258" spans="13:21" customFormat="1" ht="15">
+      <c r="M258" s="74"/>
+      <c r="U258" s="83"/>
+    </row>
+    <row r="259" spans="13:21" customFormat="1" ht="15">
+      <c r="M259" s="74"/>
+      <c r="U259" s="83"/>
+    </row>
+    <row r="260" spans="13:21" customFormat="1" ht="15">
+      <c r="M260" s="74"/>
+      <c r="U260" s="83"/>
+    </row>
+    <row r="261" spans="13:21" customFormat="1" ht="15">
+      <c r="M261" s="74"/>
+      <c r="U261" s="83"/>
+    </row>
+    <row r="262" spans="13:21" customFormat="1" ht="15">
+      <c r="M262" s="74"/>
+      <c r="U262" s="83"/>
+    </row>
+    <row r="263" spans="13:21" customFormat="1" ht="15">
+      <c r="M263" s="74"/>
+      <c r="U263" s="83"/>
+    </row>
+    <row r="264" spans="13:21" customFormat="1" ht="15">
+      <c r="M264" s="74"/>
+      <c r="U264" s="83"/>
+    </row>
+    <row r="265" spans="13:21" customFormat="1" ht="15">
+      <c r="M265" s="74"/>
+      <c r="U265" s="83"/>
+    </row>
+    <row r="266" spans="13:21" customFormat="1" ht="15">
+      <c r="M266" s="74"/>
+      <c r="U266" s="83"/>
+    </row>
+    <row r="267" spans="13:21" customFormat="1" ht="15">
+      <c r="M267" s="74"/>
+      <c r="U267" s="83"/>
+    </row>
+    <row r="268" spans="13:21" customFormat="1" ht="15">
+      <c r="M268" s="74"/>
+      <c r="U268" s="83"/>
+    </row>
+    <row r="269" spans="13:21" customFormat="1" ht="15">
+      <c r="M269" s="74"/>
+      <c r="U269" s="83"/>
+    </row>
+    <row r="270" spans="13:21" customFormat="1" ht="15">
+      <c r="M270" s="74"/>
+      <c r="U270" s="83"/>
+    </row>
+    <row r="271" spans="13:21" customFormat="1" ht="15">
+      <c r="M271" s="74"/>
+      <c r="U271" s="83"/>
+    </row>
+    <row r="272" spans="13:21" customFormat="1" ht="15">
+      <c r="M272" s="74"/>
+      <c r="U272" s="83"/>
+    </row>
+    <row r="273" spans="13:21" customFormat="1" ht="15">
+      <c r="M273" s="74"/>
+      <c r="U273" s="83"/>
+    </row>
+    <row r="274" spans="13:21" customFormat="1" ht="15">
+      <c r="M274" s="74"/>
+      <c r="U274" s="83"/>
+    </row>
+    <row r="275" spans="13:21" customFormat="1" ht="15">
+      <c r="M275" s="74"/>
+      <c r="U275" s="83"/>
+    </row>
+    <row r="276" spans="13:21" customFormat="1" ht="15">
+      <c r="M276" s="74"/>
+      <c r="U276" s="83"/>
+    </row>
+    <row r="277" spans="13:21" customFormat="1" ht="15">
+      <c r="M277" s="74"/>
+      <c r="U277" s="83"/>
+    </row>
+    <row r="278" spans="13:21" customFormat="1" ht="15">
+      <c r="M278" s="74"/>
+      <c r="U278" s="83"/>
+    </row>
+    <row r="279" spans="13:21" customFormat="1" ht="15">
+      <c r="M279" s="74"/>
+      <c r="U279" s="83"/>
+    </row>
+    <row r="280" spans="13:21" customFormat="1" ht="15">
+      <c r="M280" s="74"/>
+      <c r="U280" s="83"/>
+    </row>
+    <row r="281" spans="13:21" customFormat="1" ht="15">
+      <c r="M281" s="74"/>
+      <c r="U281" s="83"/>
+    </row>
+    <row r="282" spans="13:21" customFormat="1" ht="15">
+      <c r="M282" s="74"/>
+      <c r="U282" s="83"/>
+    </row>
+    <row r="283" spans="13:21" customFormat="1" ht="15">
+      <c r="M283" s="74"/>
+      <c r="U283" s="83"/>
+    </row>
+    <row r="284" spans="13:21" customFormat="1" ht="15">
+      <c r="M284" s="74"/>
+      <c r="U284" s="83"/>
+    </row>
+    <row r="285" spans="13:21" customFormat="1" ht="15">
+      <c r="M285" s="74"/>
+      <c r="U285" s="83"/>
+    </row>
+    <row r="286" spans="13:21" customFormat="1" ht="15">
+      <c r="M286" s="74"/>
+      <c r="U286" s="83"/>
+    </row>
+    <row r="287" spans="13:21" customFormat="1" ht="15">
+      <c r="M287" s="74"/>
+      <c r="U287" s="83"/>
+    </row>
+    <row r="288" spans="13:21" customFormat="1" ht="15">
+      <c r="M288" s="74"/>
+      <c r="U288" s="83"/>
+    </row>
+    <row r="289" spans="13:21" customFormat="1" ht="15">
+      <c r="M289" s="74"/>
+      <c r="U289" s="83"/>
+    </row>
+    <row r="290" spans="13:21" customFormat="1" ht="15">
+      <c r="M290" s="74"/>
+      <c r="U290" s="83"/>
+    </row>
+    <row r="291" spans="13:21" customFormat="1" ht="15">
+      <c r="M291" s="74"/>
+      <c r="U291" s="83"/>
+    </row>
+    <row r="292" spans="13:21" customFormat="1" ht="15">
+      <c r="M292" s="74"/>
+      <c r="U292" s="83"/>
+    </row>
+    <row r="293" spans="13:21" customFormat="1" ht="15">
+      <c r="M293" s="74"/>
+      <c r="U293" s="83"/>
+    </row>
+    <row r="294" spans="13:21" customFormat="1" ht="15">
+      <c r="M294" s="74"/>
+      <c r="U294" s="83"/>
+    </row>
+    <row r="295" spans="13:21" customFormat="1" ht="15">
+      <c r="M295" s="74"/>
+      <c r="U295" s="83"/>
+    </row>
+    <row r="296" spans="13:21" customFormat="1" ht="15">
+      <c r="M296" s="74"/>
+      <c r="U296" s="83"/>
+    </row>
+    <row r="297" spans="13:21" customFormat="1" ht="15">
+      <c r="M297" s="74"/>
+      <c r="U297" s="83"/>
+    </row>
+    <row r="298" spans="13:21" customFormat="1" ht="15">
+      <c r="M298" s="74"/>
+      <c r="U298" s="83"/>
+    </row>
+    <row r="299" spans="13:21" customFormat="1" ht="15">
+      <c r="M299" s="74"/>
+      <c r="U299" s="83"/>
+    </row>
+    <row r="300" spans="13:21" customFormat="1" ht="15">
+      <c r="M300" s="74"/>
+      <c r="U300" s="83"/>
+    </row>
+    <row r="301" spans="13:21" customFormat="1" ht="15">
+      <c r="M301" s="74"/>
+      <c r="U301" s="83"/>
+    </row>
+    <row r="302" spans="13:21" customFormat="1" ht="15">
+      <c r="M302" s="74"/>
+      <c r="U302" s="83"/>
+    </row>
+    <row r="303" spans="13:21" customFormat="1" ht="15">
+      <c r="M303" s="74"/>
+      <c r="U303" s="83"/>
+    </row>
+    <row r="304" spans="13:21" customFormat="1" ht="15">
+      <c r="M304" s="74"/>
+      <c r="U304" s="83"/>
+    </row>
+    <row r="305" spans="13:21" customFormat="1" ht="15">
+      <c r="M305" s="74"/>
+      <c r="U305" s="83"/>
+    </row>
+    <row r="306" spans="13:21" customFormat="1" ht="15">
+      <c r="M306" s="74"/>
+      <c r="U306" s="83"/>
+    </row>
+    <row r="307" spans="13:21" customFormat="1" ht="15">
+      <c r="M307" s="74"/>
+      <c r="U307" s="83"/>
+    </row>
+    <row r="308" spans="13:21" customFormat="1" ht="15">
+      <c r="M308" s="74"/>
+      <c r="U308" s="83"/>
+    </row>
+    <row r="309" spans="13:21" customFormat="1" ht="15">
+      <c r="M309" s="74"/>
+      <c r="U309" s="83"/>
+    </row>
+    <row r="310" spans="13:21" customFormat="1" ht="15">
+      <c r="M310" s="74"/>
+      <c r="U310" s="83"/>
+    </row>
+    <row r="311" spans="13:21" customFormat="1" ht="15">
+      <c r="M311" s="74"/>
+      <c r="U311" s="83"/>
+    </row>
+    <row r="312" spans="13:21" customFormat="1" ht="15">
+      <c r="M312" s="74"/>
+      <c r="U312" s="83"/>
+    </row>
+    <row r="313" spans="13:21" customFormat="1" ht="15">
+      <c r="M313" s="74"/>
+      <c r="U313" s="83"/>
+    </row>
+    <row r="314" spans="13:21" customFormat="1" ht="15">
+      <c r="M314" s="74"/>
+      <c r="U314" s="83"/>
+    </row>
+    <row r="315" spans="13:21" customFormat="1" ht="15">
+      <c r="M315" s="74"/>
+      <c r="U315" s="83"/>
+    </row>
+    <row r="316" spans="13:21" customFormat="1" ht="15">
+      <c r="M316" s="74"/>
+      <c r="U316" s="83"/>
+    </row>
+    <row r="317" spans="13:21" customFormat="1" ht="15">
+      <c r="M317" s="74"/>
+      <c r="U317" s="83"/>
+    </row>
+    <row r="318" spans="13:21" customFormat="1" ht="15">
+      <c r="M318" s="74"/>
+      <c r="U318" s="83"/>
+    </row>
+    <row r="319" spans="13:21" customFormat="1" ht="15">
+      <c r="M319" s="74"/>
+      <c r="U319" s="83"/>
+    </row>
+    <row r="320" spans="13:21" customFormat="1" ht="15">
+      <c r="M320" s="74"/>
+      <c r="U320" s="83"/>
+    </row>
+    <row r="321" spans="13:21" customFormat="1" ht="15">
+      <c r="M321" s="74"/>
+      <c r="U321" s="83"/>
+    </row>
+    <row r="322" spans="13:21" customFormat="1" ht="15">
+      <c r="M322" s="74"/>
+      <c r="U322" s="83"/>
+    </row>
+    <row r="323" spans="13:21" customFormat="1" ht="15">
+      <c r="M323" s="74"/>
+      <c r="U323" s="83"/>
+    </row>
+    <row r="324" spans="13:21" customFormat="1" ht="15">
+      <c r="M324" s="74"/>
+      <c r="U324" s="83"/>
+    </row>
+    <row r="325" spans="13:21" customFormat="1" ht="15">
+      <c r="M325" s="74"/>
+      <c r="U325" s="83"/>
+    </row>
+    <row r="326" spans="13:21" customFormat="1" ht="15">
+      <c r="M326" s="74"/>
+      <c r="U326" s="83"/>
+    </row>
+    <row r="327" spans="13:21" customFormat="1" ht="15">
+      <c r="M327" s="74"/>
+      <c r="U327" s="83"/>
+    </row>
+    <row r="328" spans="13:21" customFormat="1" ht="15">
+      <c r="M328" s="74"/>
+      <c r="U328" s="83"/>
+    </row>
+    <row r="329" spans="13:21" customFormat="1" ht="15">
+      <c r="M329" s="74"/>
+      <c r="U329" s="83"/>
+    </row>
+    <row r="330" spans="13:21" customFormat="1" ht="15">
+      <c r="M330" s="74"/>
+      <c r="U330" s="83"/>
+    </row>
+    <row r="331" spans="13:21" customFormat="1" ht="15">
+      <c r="M331" s="74"/>
+      <c r="U331" s="83"/>
+    </row>
+    <row r="332" spans="13:21" customFormat="1" ht="15">
+      <c r="M332" s="74"/>
+      <c r="U332" s="83"/>
+    </row>
+    <row r="333" spans="13:21" customFormat="1" ht="15">
+      <c r="M333" s="74"/>
+      <c r="U333" s="83"/>
+    </row>
+    <row r="334" spans="13:21" customFormat="1" ht="15">
+      <c r="M334" s="74"/>
+      <c r="U334" s="83"/>
+    </row>
+    <row r="335" spans="13:21" customFormat="1" ht="15">
+      <c r="M335" s="74"/>
+      <c r="U335" s="83"/>
+    </row>
+    <row r="336" spans="13:21" customFormat="1" ht="15">
+      <c r="M336" s="74"/>
+      <c r="U336" s="83"/>
+    </row>
+    <row r="337" spans="13:21" customFormat="1" ht="15">
+      <c r="M337" s="74"/>
+      <c r="U337" s="83"/>
+    </row>
+    <row r="338" spans="13:21" customFormat="1" ht="15">
+      <c r="M338" s="74"/>
+      <c r="U338" s="83"/>
+    </row>
+    <row r="339" spans="13:21" customFormat="1" ht="15">
+      <c r="M339" s="74"/>
+      <c r="U339" s="83"/>
+    </row>
+    <row r="340" spans="13:21" customFormat="1" ht="15">
+      <c r="M340" s="74"/>
+      <c r="U340" s="83"/>
+    </row>
+    <row r="341" spans="13:21" customFormat="1" ht="15">
+      <c r="M341" s="74"/>
+      <c r="U341" s="83"/>
+    </row>
+    <row r="342" spans="13:21" customFormat="1" ht="15">
+      <c r="M342" s="74"/>
+      <c r="U342" s="83"/>
+    </row>
+    <row r="343" spans="13:21" customFormat="1" ht="15">
+      <c r="M343" s="74"/>
+      <c r="U343" s="83"/>
+    </row>
+    <row r="344" spans="13:21" customFormat="1" ht="15">
+      <c r="M344" s="74"/>
+      <c r="U344" s="83"/>
+    </row>
+    <row r="345" spans="13:21" customFormat="1" ht="15">
+      <c r="M345" s="74"/>
+      <c r="U345" s="83"/>
+    </row>
+    <row r="346" spans="13:21" customFormat="1" ht="15">
+      <c r="M346" s="74"/>
+      <c r="U346" s="83"/>
+    </row>
+    <row r="347" spans="13:21" customFormat="1" ht="15">
+      <c r="M347" s="74"/>
+      <c r="U347" s="83"/>
+    </row>
+    <row r="348" spans="13:21" customFormat="1" ht="15">
+      <c r="M348" s="74"/>
+      <c r="U348" s="83"/>
+    </row>
+    <row r="349" spans="13:21" customFormat="1" ht="15">
+      <c r="M349" s="74"/>
+      <c r="U349" s="83"/>
+    </row>
+    <row r="350" spans="13:21" customFormat="1" ht="15">
+      <c r="M350" s="74"/>
+      <c r="U350" s="83"/>
+    </row>
+    <row r="351" spans="13:21" customFormat="1" ht="15">
+      <c r="M351" s="74"/>
+      <c r="U351" s="83"/>
+    </row>
+    <row r="352" spans="13:21" customFormat="1" ht="15">
+      <c r="M352" s="74"/>
+      <c r="U352" s="83"/>
+    </row>
+    <row r="353" spans="13:21" customFormat="1" ht="15">
+      <c r="M353" s="74"/>
+      <c r="U353" s="83"/>
+    </row>
+    <row r="354" spans="13:21" customFormat="1" ht="15">
+      <c r="M354" s="74"/>
+      <c r="U354" s="83"/>
+    </row>
+    <row r="355" spans="13:21" customFormat="1" ht="15">
+      <c r="M355" s="74"/>
+      <c r="U355" s="83"/>
+    </row>
+    <row r="356" spans="13:21" customFormat="1" ht="15">
+      <c r="M356" s="74"/>
+      <c r="U356" s="83"/>
+    </row>
+    <row r="357" spans="13:21" customFormat="1" ht="15">
+      <c r="M357" s="74"/>
+      <c r="U357" s="83"/>
+    </row>
+    <row r="358" spans="13:21" customFormat="1" ht="15">
+      <c r="M358" s="74"/>
+      <c r="U358" s="83"/>
+    </row>
+    <row r="359" spans="13:21" customFormat="1" ht="15">
+      <c r="M359" s="74"/>
+      <c r="U359" s="83"/>
+    </row>
+    <row r="360" spans="13:21" customFormat="1" ht="15">
+      <c r="M360" s="74"/>
+      <c r="U360" s="83"/>
+    </row>
+    <row r="361" spans="13:21" customFormat="1" ht="15">
+      <c r="M361" s="74"/>
+      <c r="U361" s="83"/>
+    </row>
+    <row r="362" spans="13:21" customFormat="1" ht="15">
+      <c r="M362" s="74"/>
+      <c r="U362" s="83"/>
+    </row>
+    <row r="363" spans="13:21" customFormat="1" ht="15">
+      <c r="M363" s="74"/>
+      <c r="U363" s="83"/>
+    </row>
+    <row r="364" spans="13:21" customFormat="1" ht="15">
+      <c r="M364" s="74"/>
+      <c r="U364" s="83"/>
+    </row>
+    <row r="365" spans="13:21" customFormat="1" ht="15">
+      <c r="M365" s="74"/>
+      <c r="U365" s="83"/>
+    </row>
+    <row r="366" spans="13:21" customFormat="1" ht="15">
+      <c r="M366" s="74"/>
+      <c r="U366" s="83"/>
+    </row>
+    <row r="367" spans="13:21" customFormat="1" ht="15">
+      <c r="M367" s="74"/>
+      <c r="U367" s="83"/>
+    </row>
+    <row r="368" spans="13:21" customFormat="1" ht="15">
+      <c r="M368" s="74"/>
+      <c r="U368" s="83"/>
+    </row>
+    <row r="369" spans="13:21" customFormat="1" ht="15">
+      <c r="M369" s="74"/>
+      <c r="U369" s="83"/>
+    </row>
+    <row r="370" spans="13:21" customFormat="1" ht="15">
+      <c r="M370" s="74"/>
+      <c r="U370" s="83"/>
+    </row>
+    <row r="371" spans="13:21" customFormat="1" ht="15">
+      <c r="M371" s="74"/>
+      <c r="U371" s="83"/>
+    </row>
+    <row r="372" spans="13:21" customFormat="1" ht="15">
+      <c r="M372" s="74"/>
+      <c r="U372" s="83"/>
+    </row>
+    <row r="373" spans="13:21" customFormat="1" ht="15">
+      <c r="M373" s="74"/>
+      <c r="U373" s="83"/>
+    </row>
+    <row r="374" spans="13:21" customFormat="1" ht="15">
+      <c r="M374" s="74"/>
+      <c r="U374" s="83"/>
+    </row>
+    <row r="375" spans="13:21" customFormat="1" ht="15">
+      <c r="M375" s="74"/>
+      <c r="U375" s="83"/>
+    </row>
+    <row r="376" spans="13:21" customFormat="1" ht="15">
+      <c r="M376" s="74"/>
+      <c r="U376" s="83"/>
+    </row>
+    <row r="377" spans="13:21" customFormat="1" ht="15">
+      <c r="M377" s="74"/>
+      <c r="U377" s="83"/>
+    </row>
+    <row r="378" spans="13:21" customFormat="1" ht="15">
+      <c r="M378" s="74"/>
+      <c r="U378" s="83"/>
+    </row>
+    <row r="379" spans="13:21" customFormat="1" ht="15">
+      <c r="M379" s="74"/>
+      <c r="U379" s="83"/>
+    </row>
+    <row r="380" spans="13:21" customFormat="1" ht="15">
+      <c r="M380" s="74"/>
+      <c r="U380" s="83"/>
+    </row>
+    <row r="381" spans="13:21" customFormat="1" ht="15">
+      <c r="M381" s="74"/>
+      <c r="U381" s="83"/>
+    </row>
+    <row r="382" spans="13:21" customFormat="1" ht="15">
+      <c r="M382" s="74"/>
+      <c r="U382" s="83"/>
+    </row>
+    <row r="383" spans="13:21" customFormat="1" ht="15">
+      <c r="M383" s="74"/>
+      <c r="U383" s="83"/>
+    </row>
+    <row r="384" spans="13:21" customFormat="1" ht="15">
+      <c r="M384" s="74"/>
+      <c r="U384" s="83"/>
+    </row>
+    <row r="385" spans="13:21" customFormat="1" ht="15">
+      <c r="M385" s="74"/>
+      <c r="U385" s="83"/>
+    </row>
+    <row r="386" spans="13:21" customFormat="1" ht="15">
+      <c r="M386" s="74"/>
+      <c r="U386" s="83"/>
+    </row>
+    <row r="387" spans="13:21" customFormat="1" ht="15">
+      <c r="M387" s="74"/>
+      <c r="U387" s="83"/>
+    </row>
+    <row r="388" spans="13:21" customFormat="1" ht="15">
+      <c r="M388" s="74"/>
+      <c r="U388" s="83"/>
+    </row>
+    <row r="389" spans="13:21" customFormat="1" ht="15">
+      <c r="M389" s="74"/>
+      <c r="U389" s="83"/>
+    </row>
+    <row r="390" spans="13:21" customFormat="1" ht="15">
+      <c r="M390" s="74"/>
+      <c r="U390" s="83"/>
+    </row>
+    <row r="391" spans="13:21" customFormat="1" ht="15">
+      <c r="M391" s="74"/>
+      <c r="U391" s="83"/>
+    </row>
+    <row r="392" spans="13:21" customFormat="1" ht="15">
+      <c r="M392" s="74"/>
+      <c r="U392" s="83"/>
+    </row>
+    <row r="393" spans="13:21" customFormat="1" ht="15">
+      <c r="M393" s="74"/>
+      <c r="U393" s="83"/>
+    </row>
+    <row r="394" spans="13:21" customFormat="1" ht="15">
+      <c r="M394" s="74"/>
+      <c r="U394" s="83"/>
+    </row>
+    <row r="395" spans="13:21" customFormat="1" ht="15">
+      <c r="M395" s="74"/>
+      <c r="U395" s="83"/>
+    </row>
+    <row r="396" spans="13:21" customFormat="1" ht="15">
+      <c r="M396" s="74"/>
+      <c r="U396" s="83"/>
+    </row>
+    <row r="397" spans="13:21" customFormat="1" ht="15">
+      <c r="M397" s="74"/>
+      <c r="U397" s="83"/>
+    </row>
+    <row r="398" spans="13:21" customFormat="1" ht="15">
+      <c r="M398" s="74"/>
+      <c r="U398" s="83"/>
+    </row>
+    <row r="399" spans="13:21" customFormat="1" ht="15">
+      <c r="M399" s="74"/>
+      <c r="U399" s="83"/>
+    </row>
+    <row r="400" spans="13:21" customFormat="1" ht="15">
+      <c r="M400" s="74"/>
+      <c r="U400" s="83"/>
+    </row>
+    <row r="401" spans="13:21" customFormat="1" ht="15">
+      <c r="M401" s="74"/>
+      <c r="U401" s="83"/>
+    </row>
+    <row r="402" spans="13:21" customFormat="1" ht="15">
+      <c r="M402" s="74"/>
+      <c r="U402" s="83"/>
+    </row>
+    <row r="403" spans="13:21" customFormat="1" ht="15">
+      <c r="M403" s="74"/>
+      <c r="U403" s="83"/>
+    </row>
+    <row r="404" spans="13:21" customFormat="1" ht="15">
+      <c r="M404" s="74"/>
+      <c r="U404" s="83"/>
+    </row>
+    <row r="405" spans="13:21" customFormat="1" ht="15">
+      <c r="M405" s="74"/>
+      <c r="U405" s="83"/>
+    </row>
+    <row r="406" spans="13:21" customFormat="1" ht="15">
+      <c r="M406" s="74"/>
+      <c r="U406" s="83"/>
+    </row>
+    <row r="407" spans="13:21" customFormat="1" ht="15">
+      <c r="M407" s="74"/>
+      <c r="U407" s="83"/>
+    </row>
+    <row r="408" spans="13:21" customFormat="1" ht="15">
+      <c r="M408" s="74"/>
+      <c r="U408" s="83"/>
+    </row>
+    <row r="409" spans="13:21" customFormat="1" ht="15">
+      <c r="M409" s="74"/>
+      <c r="U409" s="83"/>
+    </row>
+    <row r="410" spans="13:21" customFormat="1" ht="15">
+      <c r="M410" s="74"/>
+      <c r="U410" s="83"/>
+    </row>
+    <row r="411" spans="13:21" customFormat="1" ht="15">
+      <c r="M411" s="74"/>
+      <c r="U411" s="83"/>
+    </row>
+    <row r="412" spans="13:21" customFormat="1" ht="15">
+      <c r="M412" s="74"/>
+      <c r="U412" s="83"/>
+    </row>
+    <row r="413" spans="13:21" customFormat="1" ht="15">
+      <c r="M413" s="74"/>
+      <c r="U413" s="83"/>
+    </row>
+    <row r="414" spans="13:21" customFormat="1" ht="15">
+      <c r="M414" s="74"/>
+      <c r="U414" s="83"/>
+    </row>
+    <row r="415" spans="13:21" customFormat="1" ht="15">
+      <c r="M415" s="74"/>
+      <c r="U415" s="83"/>
+    </row>
+    <row r="416" spans="13:21" customFormat="1" ht="15">
+      <c r="M416" s="74"/>
+      <c r="U416" s="83"/>
+    </row>
+    <row r="417" spans="13:21" customFormat="1" ht="15">
+      <c r="M417" s="74"/>
+      <c r="U417" s="83"/>
+    </row>
+    <row r="418" spans="13:21" customFormat="1" ht="15">
+      <c r="M418" s="74"/>
+      <c r="U418" s="83"/>
+    </row>
+    <row r="419" spans="13:21" customFormat="1" ht="15">
+      <c r="M419" s="74"/>
+      <c r="U419" s="83"/>
+    </row>
+    <row r="420" spans="13:21" customFormat="1" ht="15">
+      <c r="M420" s="74"/>
+      <c r="U420" s="83"/>
+    </row>
+    <row r="421" spans="13:21" customFormat="1" ht="15">
+      <c r="M421" s="74"/>
+      <c r="U421" s="83"/>
+    </row>
+    <row r="422" spans="13:21" customFormat="1" ht="15">
+      <c r="M422" s="74"/>
+      <c r="U422" s="83"/>
+    </row>
+    <row r="423" spans="13:21" customFormat="1" ht="15">
+      <c r="M423" s="74"/>
+      <c r="U423" s="83"/>
+    </row>
+    <row r="424" spans="13:21" customFormat="1" ht="15">
+      <c r="M424" s="74"/>
+      <c r="U424" s="83"/>
+    </row>
+    <row r="425" spans="13:21" customFormat="1" ht="15">
+      <c r="M425" s="74"/>
+      <c r="U425" s="83"/>
+    </row>
+    <row r="426" spans="13:21" customFormat="1" ht="15">
+      <c r="M426" s="74"/>
+      <c r="U426" s="83"/>
+    </row>
+    <row r="427" spans="13:21" customFormat="1" ht="15">
+      <c r="M427" s="74"/>
+      <c r="U427" s="83"/>
+    </row>
+    <row r="428" spans="13:21" customFormat="1" ht="15">
+      <c r="M428" s="74"/>
+      <c r="U428" s="83"/>
+    </row>
+    <row r="429" spans="13:21" customFormat="1" ht="15">
+      <c r="M429" s="74"/>
+      <c r="U429" s="83"/>
+    </row>
+    <row r="430" spans="13:21" customFormat="1" ht="15">
+      <c r="M430" s="74"/>
+      <c r="U430" s="83"/>
+    </row>
+    <row r="431" spans="13:21" customFormat="1" ht="15">
+      <c r="M431" s="74"/>
+      <c r="U431" s="83"/>
+    </row>
+    <row r="432" spans="13:21" customFormat="1" ht="15">
+      <c r="M432" s="74"/>
+      <c r="U432" s="83"/>
+    </row>
+    <row r="433" spans="13:21" customFormat="1" ht="15">
+      <c r="M433" s="74"/>
+      <c r="U433" s="83"/>
+    </row>
+    <row r="434" spans="13:21" customFormat="1" ht="15">
+      <c r="M434" s="74"/>
+      <c r="U434" s="83"/>
+    </row>
+    <row r="435" spans="13:21" customFormat="1" ht="15">
+      <c r="M435" s="74"/>
+      <c r="U435" s="83"/>
+    </row>
+    <row r="436" spans="13:21" customFormat="1" ht="15">
+      <c r="M436" s="74"/>
+      <c r="U436" s="83"/>
+    </row>
+    <row r="437" spans="13:21" customFormat="1" ht="15">
+      <c r="M437" s="74"/>
+      <c r="U437" s="83"/>
+    </row>
+    <row r="438" spans="13:21" customFormat="1" ht="15">
+      <c r="M438" s="74"/>
+      <c r="U438" s="83"/>
+    </row>
+    <row r="439" spans="13:21" customFormat="1" ht="15">
+      <c r="M439" s="74"/>
+      <c r="U439" s="83"/>
+    </row>
+    <row r="440" spans="13:21" customFormat="1" ht="15">
+      <c r="M440" s="74"/>
+      <c r="U440" s="83"/>
+    </row>
+    <row r="441" spans="13:21" customFormat="1" ht="15">
+      <c r="M441" s="74"/>
+      <c r="U441" s="83"/>
+    </row>
+    <row r="442" spans="13:21" customFormat="1" ht="15">
+      <c r="M442" s="74"/>
+      <c r="U442" s="83"/>
+    </row>
+    <row r="443" spans="13:21" customFormat="1" ht="15">
+      <c r="M443" s="74"/>
+      <c r="U443" s="83"/>
+    </row>
+    <row r="444" spans="13:21" customFormat="1" ht="15">
+      <c r="M444" s="74"/>
+      <c r="U444" s="83"/>
+    </row>
+    <row r="445" spans="13:21" customFormat="1" ht="15">
+      <c r="M445" s="74"/>
+      <c r="U445" s="83"/>
+    </row>
+    <row r="446" spans="13:21" customFormat="1" ht="15">
+      <c r="M446" s="74"/>
+      <c r="U446" s="83"/>
+    </row>
+    <row r="447" spans="13:21" customFormat="1" ht="15">
+      <c r="M447" s="74"/>
+      <c r="U447" s="83"/>
+    </row>
+    <row r="448" spans="13:21" customFormat="1" ht="15">
+      <c r="M448" s="74"/>
+      <c r="U448" s="83"/>
+    </row>
+    <row r="449" spans="13:21" customFormat="1" ht="15">
+      <c r="M449" s="74"/>
+      <c r="U449" s="83"/>
+    </row>
+    <row r="450" spans="13:21" customFormat="1" ht="15">
+      <c r="M450" s="74"/>
+      <c r="U450" s="83"/>
+    </row>
+    <row r="451" spans="13:21" customFormat="1" ht="15">
+      <c r="M451" s="74"/>
+      <c r="U451" s="83"/>
+    </row>
+    <row r="452" spans="13:21" customFormat="1" ht="15">
+      <c r="M452" s="74"/>
+      <c r="U452" s="83"/>
+    </row>
+    <row r="453" spans="13:21" customFormat="1" ht="15">
+      <c r="M453" s="74"/>
+      <c r="U453" s="83"/>
+    </row>
+    <row r="454" spans="13:21" customFormat="1" ht="15">
+      <c r="M454" s="74"/>
+      <c r="U454" s="83"/>
+    </row>
+    <row r="455" spans="13:21" customFormat="1" ht="15">
+      <c r="M455" s="74"/>
+      <c r="U455" s="83"/>
+    </row>
+    <row r="456" spans="13:21" customFormat="1" ht="15">
+      <c r="M456" s="74"/>
+      <c r="U456" s="83"/>
+    </row>
+    <row r="457" spans="13:21" customFormat="1" ht="15">
+      <c r="M457" s="74"/>
+      <c r="U457" s="83"/>
+    </row>
+    <row r="458" spans="13:21" customFormat="1" ht="15">
+      <c r="M458" s="74"/>
+      <c r="U458" s="83"/>
+    </row>
+    <row r="459" spans="13:21" customFormat="1" ht="15">
+      <c r="M459" s="74"/>
+      <c r="U459" s="83"/>
+    </row>
+    <row r="460" spans="13:21" customFormat="1" ht="15">
+      <c r="M460" s="74"/>
+      <c r="U460" s="83"/>
+    </row>
+    <row r="461" spans="13:21" customFormat="1" ht="15">
+      <c r="M461" s="74"/>
+      <c r="U461" s="83"/>
+    </row>
+    <row r="462" spans="13:21" customFormat="1" ht="15">
+      <c r="M462" s="74"/>
+      <c r="U462" s="83"/>
+    </row>
+    <row r="463" spans="13:21" customFormat="1" ht="15">
+      <c r="M463" s="74"/>
+      <c r="U463" s="83"/>
+    </row>
+    <row r="464" spans="13:21" customFormat="1" ht="15">
+      <c r="M464" s="74"/>
+      <c r="U464" s="83"/>
+    </row>
+    <row r="465" spans="13:21" customFormat="1" ht="15">
+      <c r="M465" s="74"/>
+      <c r="U465" s="83"/>
+    </row>
+    <row r="466" spans="13:21" customFormat="1" ht="15">
+      <c r="M466" s="74"/>
+      <c r="U466" s="83"/>
+    </row>
+    <row r="467" spans="13:21" customFormat="1" ht="15">
+      <c r="M467" s="74"/>
+      <c r="U467" s="83"/>
+    </row>
+    <row r="468" spans="13:21" customFormat="1" ht="15">
+      <c r="M468" s="74"/>
+      <c r="U468" s="83"/>
+    </row>
+    <row r="469" spans="13:21" customFormat="1" ht="15">
+      <c r="M469" s="74"/>
+      <c r="U469" s="83"/>
+    </row>
+    <row r="470" spans="13:21" customFormat="1" ht="15">
+      <c r="M470" s="74"/>
+      <c r="U470" s="83"/>
+    </row>
+    <row r="471" spans="13:21" customFormat="1" ht="15">
+      <c r="M471" s="74"/>
+      <c r="U471" s="83"/>
+    </row>
+    <row r="472" spans="13:21" customFormat="1" ht="15">
+      <c r="M472" s="74"/>
+      <c r="U472" s="83"/>
+    </row>
+    <row r="473" spans="13:21" customFormat="1" ht="15">
+      <c r="M473" s="74"/>
+      <c r="U473" s="83"/>
+    </row>
+    <row r="474" spans="13:21" customFormat="1" ht="15">
+      <c r="M474" s="74"/>
+      <c r="U474" s="83"/>
+    </row>
+    <row r="475" spans="13:21" customFormat="1" ht="15">
+      <c r="M475" s="74"/>
+      <c r="U475" s="83"/>
+    </row>
+    <row r="476" spans="13:21" customFormat="1" ht="15">
+      <c r="M476" s="74"/>
+      <c r="U476" s="83"/>
+    </row>
+    <row r="477" spans="13:21" customFormat="1" ht="15">
+      <c r="M477" s="74"/>
+      <c r="U477" s="83"/>
+    </row>
+    <row r="478" spans="13:21" customFormat="1" ht="15">
+      <c r="M478" s="74"/>
+      <c r="U478" s="83"/>
+    </row>
+    <row r="479" spans="13:21" customFormat="1" ht="15">
+      <c r="M479" s="74"/>
+      <c r="U479" s="83"/>
+    </row>
+    <row r="480" spans="13:21" customFormat="1" ht="15">
+      <c r="M480" s="74"/>
+      <c r="U480" s="83"/>
+    </row>
+    <row r="481" spans="13:21" customFormat="1" ht="15">
+      <c r="M481" s="74"/>
+      <c r="U481" s="83"/>
+    </row>
+    <row r="482" spans="13:21" customFormat="1" ht="15">
+      <c r="M482" s="74"/>
+      <c r="U482" s="83"/>
+    </row>
+    <row r="483" spans="13:21" customFormat="1" ht="15">
+      <c r="M483" s="74"/>
+      <c r="U483" s="83"/>
+    </row>
+    <row r="484" spans="13:21" customFormat="1" ht="15">
+      <c r="M484" s="74"/>
+      <c r="U484" s="83"/>
+    </row>
+    <row r="485" spans="13:21" customFormat="1" ht="15">
+      <c r="M485" s="74"/>
+      <c r="U485" s="83"/>
+    </row>
+    <row r="486" spans="13:21" customFormat="1" ht="15">
+      <c r="M486" s="74"/>
+      <c r="U486" s="83"/>
+    </row>
+    <row r="487" spans="13:21" customFormat="1" ht="15">
+      <c r="M487" s="74"/>
+      <c r="U487" s="83"/>
+    </row>
+    <row r="488" spans="13:21" customFormat="1" ht="15">
+      <c r="M488" s="74"/>
+      <c r="U488" s="83"/>
+    </row>
+    <row r="489" spans="13:21" customFormat="1" ht="15">
+      <c r="M489" s="74"/>
+      <c r="U489" s="83"/>
+    </row>
+    <row r="490" spans="13:21" customFormat="1" ht="15">
+      <c r="M490" s="74"/>
+      <c r="U490" s="83"/>
+    </row>
+    <row r="491" spans="13:21" customFormat="1" ht="15">
+      <c r="M491" s="74"/>
+      <c r="U491" s="83"/>
+    </row>
+    <row r="492" spans="13:21" customFormat="1" ht="15">
+      <c r="M492" s="74"/>
+      <c r="U492" s="83"/>
+    </row>
+    <row r="493" spans="13:21" customFormat="1" ht="15">
+      <c r="M493" s="74"/>
+      <c r="U493" s="83"/>
+    </row>
+    <row r="494" spans="13:21" customFormat="1" ht="15">
+      <c r="M494" s="74"/>
+      <c r="U494" s="83"/>
+    </row>
+    <row r="495" spans="13:21" customFormat="1" ht="15">
+      <c r="M495" s="74"/>
+      <c r="U495" s="83"/>
+    </row>
+    <row r="496" spans="13:21" customFormat="1" ht="15">
+      <c r="M496" s="74"/>
+      <c r="U496" s="83"/>
+    </row>
+    <row r="497" spans="13:21" customFormat="1" ht="15">
+      <c r="M497" s="74"/>
+      <c r="U497" s="83"/>
+    </row>
+    <row r="498" spans="13:21" customFormat="1" ht="15">
+      <c r="M498" s="74"/>
+      <c r="U498" s="83"/>
+    </row>
+    <row r="499" spans="13:21" customFormat="1" ht="15">
+      <c r="M499" s="74"/>
+      <c r="U499" s="83"/>
+    </row>
+    <row r="500" spans="13:21" customFormat="1" ht="15">
+      <c r="M500" s="74"/>
+      <c r="U500" s="83"/>
+    </row>
+    <row r="501" spans="13:21" customFormat="1" ht="15">
+      <c r="M501" s="74"/>
+      <c r="U501" s="83"/>
+    </row>
+    <row r="502" spans="13:21" customFormat="1" ht="15">
+      <c r="M502" s="74"/>
+      <c r="U502" s="83"/>
+    </row>
+    <row r="503" spans="13:21" customFormat="1" ht="15">
+      <c r="M503" s="74"/>
+      <c r="U503" s="83"/>
+    </row>
+    <row r="504" spans="13:21" customFormat="1" ht="15">
+      <c r="M504" s="74"/>
+      <c r="U504" s="83"/>
+    </row>
+    <row r="505" spans="13:21" customFormat="1" ht="15">
+      <c r="M505" s="74"/>
+      <c r="U505" s="83"/>
+    </row>
+    <row r="506" spans="13:21" customFormat="1" ht="15">
+      <c r="M506" s="74"/>
+      <c r="U506" s="83"/>
+    </row>
+    <row r="507" spans="13:21" customFormat="1" ht="15">
+      <c r="M507" s="74"/>
+      <c r="U507" s="83"/>
+    </row>
+    <row r="508" spans="13:21" customFormat="1" ht="15">
+      <c r="M508" s="74"/>
+      <c r="U508" s="83"/>
+    </row>
+    <row r="509" spans="13:21" customFormat="1" ht="15">
+      <c r="M509" s="74"/>
+      <c r="U509" s="83"/>
+    </row>
+    <row r="510" spans="13:21" customFormat="1" ht="15">
+      <c r="M510" s="74"/>
+      <c r="U510" s="83"/>
+    </row>
+    <row r="511" spans="13:21" customFormat="1" ht="15">
+      <c r="M511" s="74"/>
+      <c r="U511" s="83"/>
+    </row>
+    <row r="512" spans="13:21" customFormat="1" ht="15">
+      <c r="M512" s="74"/>
+      <c r="U512" s="83"/>
+    </row>
+    <row r="513" spans="13:21" customFormat="1" ht="15">
+      <c r="M513" s="74"/>
+      <c r="U513" s="83"/>
+    </row>
+    <row r="514" spans="13:21" customFormat="1" ht="15">
+      <c r="M514" s="74"/>
+      <c r="U514" s="83"/>
+    </row>
+    <row r="515" spans="13:21" customFormat="1" ht="15">
+      <c r="M515" s="74"/>
+      <c r="U515" s="83"/>
+    </row>
+    <row r="516" spans="13:21" customFormat="1" ht="15">
+      <c r="M516" s="74"/>
+      <c r="U516" s="83"/>
+    </row>
+    <row r="517" spans="13:21" customFormat="1" ht="15">
+      <c r="M517" s="74"/>
+      <c r="U517" s="83"/>
+    </row>
+    <row r="518" spans="13:21" customFormat="1" ht="15">
+      <c r="M518" s="74"/>
+      <c r="U518" s="83"/>
+    </row>
+    <row r="519" spans="13:21" customFormat="1" ht="15">
+      <c r="M519" s="74"/>
+      <c r="U519" s="83"/>
+    </row>
+    <row r="520" spans="13:21" customFormat="1" ht="15">
+      <c r="M520" s="74"/>
+      <c r="U520" s="83"/>
+    </row>
+    <row r="521" spans="13:21" customFormat="1" ht="15">
+      <c r="M521" s="74"/>
+      <c r="U521" s="83"/>
+    </row>
+    <row r="522" spans="13:21" customFormat="1" ht="15">
+      <c r="M522" s="74"/>
+      <c r="U522" s="83"/>
+    </row>
+    <row r="523" spans="13:21" customFormat="1" ht="15">
+      <c r="M523" s="74"/>
+      <c r="U523" s="83"/>
+    </row>
+    <row r="524" spans="13:21" customFormat="1" ht="15">
+      <c r="M524" s="74"/>
+      <c r="U524" s="83"/>
+    </row>
+    <row r="525" spans="13:21" customFormat="1" ht="15">
+      <c r="M525" s="74"/>
+      <c r="U525" s="83"/>
+    </row>
+    <row r="526" spans="13:21" customFormat="1" ht="15">
+      <c r="M526" s="74"/>
+      <c r="U526" s="83"/>
+    </row>
+    <row r="527" spans="13:21" customFormat="1" ht="15">
+      <c r="M527" s="74"/>
+      <c r="U527" s="83"/>
+    </row>
+    <row r="528" spans="13:21" customFormat="1" ht="15">
+      <c r="M528" s="74"/>
+      <c r="U528" s="83"/>
+    </row>
+    <row r="529" spans="13:21" customFormat="1" ht="15">
+      <c r="M529" s="74"/>
+      <c r="U529" s="83"/>
+    </row>
+    <row r="530" spans="13:21" customFormat="1" ht="15">
+      <c r="M530" s="74"/>
+      <c r="U530" s="83"/>
+    </row>
+    <row r="531" spans="13:21" customFormat="1" ht="15">
+      <c r="M531" s="74"/>
+      <c r="U531" s="83"/>
+    </row>
+    <row r="532" spans="13:21" customFormat="1" ht="15">
+      <c r="M532" s="74"/>
+      <c r="U532" s="83"/>
+    </row>
+    <row r="533" spans="13:21" customFormat="1" ht="15">
+      <c r="M533" s="74"/>
+      <c r="U533" s="83"/>
+    </row>
+    <row r="534" spans="13:21" customFormat="1" ht="15">
+      <c r="M534" s="74"/>
+      <c r="U534" s="83"/>
+    </row>
+    <row r="535" spans="13:21" customFormat="1" ht="15">
+      <c r="M535" s="74"/>
+      <c r="U535" s="83"/>
+    </row>
+    <row r="536" spans="13:21" customFormat="1" ht="15">
+      <c r="M536" s="74"/>
+      <c r="U536" s="83"/>
+    </row>
+    <row r="537" spans="13:21" customFormat="1" ht="15">
+      <c r="M537" s="74"/>
+      <c r="U537" s="83"/>
+    </row>
+    <row r="538" spans="13:21" customFormat="1" ht="15">
+      <c r="M538" s="74"/>
+      <c r="U538" s="83"/>
+    </row>
+    <row r="539" spans="13:21" customFormat="1" ht="15">
+      <c r="M539" s="74"/>
+      <c r="U539" s="83"/>
+    </row>
+    <row r="540" spans="13:21" customFormat="1" ht="15">
+      <c r="M540" s="74"/>
+      <c r="U540" s="83"/>
+    </row>
+    <row r="541" spans="13:21" customFormat="1" ht="15">
+      <c r="M541" s="74"/>
+      <c r="U541" s="83"/>
+    </row>
+    <row r="542" spans="13:21" customFormat="1" ht="15">
+      <c r="M542" s="74"/>
+      <c r="U542" s="83"/>
+    </row>
+    <row r="543" spans="13:21" customFormat="1" ht="15">
+      <c r="M543" s="74"/>
+      <c r="U543" s="83"/>
+    </row>
+    <row r="544" spans="13:21" customFormat="1" ht="15">
+      <c r="M544" s="74"/>
+      <c r="U544" s="83"/>
+    </row>
+    <row r="545" spans="13:21" customFormat="1" ht="15">
+      <c r="M545" s="74"/>
+      <c r="U545" s="83"/>
+    </row>
+    <row r="546" spans="13:21" customFormat="1" ht="15">
+      <c r="M546" s="74"/>
+      <c r="U546" s="83"/>
+    </row>
+    <row r="547" spans="13:21" customFormat="1" ht="15">
+      <c r="M547" s="74"/>
+      <c r="U547" s="83"/>
+    </row>
+    <row r="548" spans="13:21" customFormat="1" ht="15">
+      <c r="M548" s="74"/>
+      <c r="U548" s="83"/>
+    </row>
+    <row r="549" spans="13:21" customFormat="1" ht="15">
+      <c r="M549" s="74"/>
+      <c r="U549" s="83"/>
+    </row>
+    <row r="550" spans="13:21" customFormat="1" ht="15">
+      <c r="M550" s="74"/>
+      <c r="U550" s="83"/>
+    </row>
+    <row r="551" spans="13:21" customFormat="1" ht="15">
+      <c r="M551" s="74"/>
+      <c r="U551" s="83"/>
+    </row>
+    <row r="552" spans="13:21" customFormat="1" ht="15">
+      <c r="M552" s="74"/>
+      <c r="U552" s="83"/>
+    </row>
+    <row r="553" spans="13:21" customFormat="1" ht="15">
+      <c r="M553" s="74"/>
+      <c r="U553" s="83"/>
+    </row>
+    <row r="554" spans="13:21" customFormat="1" ht="15">
+      <c r="M554" s="74"/>
+      <c r="U554" s="83"/>
+    </row>
+    <row r="555" spans="13:21" customFormat="1" ht="15">
+      <c r="M555" s="74"/>
+      <c r="U555" s="83"/>
+    </row>
+    <row r="556" spans="13:21" customFormat="1" ht="15">
+      <c r="M556" s="74"/>
+      <c r="U556" s="83"/>
+    </row>
+    <row r="557" spans="13:21" customFormat="1" ht="15">
+      <c r="M557" s="74"/>
+      <c r="U557" s="83"/>
+    </row>
+    <row r="558" spans="13:21" customFormat="1" ht="15">
+      <c r="M558" s="74"/>
+      <c r="U558" s="83"/>
+    </row>
+    <row r="559" spans="13:21" customFormat="1" ht="15">
+      <c r="M559" s="74"/>
+      <c r="U559" s="83"/>
+    </row>
+    <row r="560" spans="13:21" customFormat="1" ht="15">
+      <c r="M560" s="74"/>
+      <c r="U560" s="83"/>
+    </row>
+    <row r="561" spans="13:21" customFormat="1" ht="15">
+      <c r="M561" s="74"/>
+      <c r="U561" s="83"/>
+    </row>
+    <row r="562" spans="13:21" customFormat="1" ht="15">
+      <c r="M562" s="74"/>
+      <c r="U562" s="83"/>
+    </row>
+    <row r="563" spans="13:21" customFormat="1" ht="15">
+      <c r="M563" s="74"/>
+      <c r="U563" s="83"/>
+    </row>
+    <row r="564" spans="13:21" customFormat="1" ht="15">
+      <c r="M564" s="74"/>
+      <c r="U564" s="83"/>
+    </row>
+    <row r="565" spans="13:21" customFormat="1" ht="15">
+      <c r="M565" s="74"/>
+      <c r="U565" s="83"/>
+    </row>
+    <row r="566" spans="13:21" customFormat="1" ht="15">
+      <c r="M566" s="74"/>
+      <c r="U566" s="83"/>
+    </row>
+    <row r="567" spans="13:21" customFormat="1" ht="15">
+      <c r="M567" s="74"/>
+      <c r="U567" s="83"/>
+    </row>
+    <row r="568" spans="13:21" customFormat="1" ht="15">
+      <c r="M568" s="74"/>
+      <c r="U568" s="83"/>
+    </row>
+    <row r="569" spans="13:21" customFormat="1" ht="15">
+      <c r="M569" s="74"/>
+      <c r="U569" s="83"/>
+    </row>
+    <row r="570" spans="13:21" customFormat="1" ht="15">
+      <c r="M570" s="74"/>
+      <c r="U570" s="83"/>
+    </row>
+    <row r="571" spans="13:21" customFormat="1" ht="15">
+      <c r="M571" s="74"/>
+      <c r="U571" s="83"/>
+    </row>
+    <row r="572" spans="13:21" customFormat="1" ht="15">
+      <c r="M572" s="74"/>
+      <c r="U572" s="83"/>
+    </row>
+    <row r="573" spans="13:21" customFormat="1" ht="15">
+      <c r="M573" s="74"/>
+      <c r="U573" s="83"/>
+    </row>
+    <row r="574" spans="13:21" customFormat="1" ht="15">
+      <c r="M574" s="74"/>
+      <c r="U574" s="83"/>
+    </row>
+    <row r="575" spans="13:21" customFormat="1" ht="15">
+      <c r="M575" s="74"/>
+      <c r="U575" s="83"/>
+    </row>
+    <row r="576" spans="13:21" customFormat="1" ht="15">
+      <c r="M576" s="74"/>
+      <c r="U576" s="83"/>
+    </row>
+    <row r="577" spans="13:21" customFormat="1" ht="15">
+      <c r="M577" s="74"/>
+      <c r="U577" s="83"/>
+    </row>
+    <row r="578" spans="13:21" customFormat="1" ht="15">
+      <c r="M578" s="74"/>
+      <c r="U578" s="83"/>
+    </row>
+    <row r="579" spans="13:21" customFormat="1" ht="15">
+      <c r="M579" s="74"/>
+      <c r="U579" s="83"/>
+    </row>
+    <row r="580" spans="13:21" customFormat="1" ht="15">
+      <c r="M580" s="74"/>
+      <c r="U580" s="83"/>
+    </row>
+    <row r="581" spans="13:21" customFormat="1" ht="15">
+      <c r="M581" s="74"/>
+      <c r="U581" s="83"/>
+    </row>
+    <row r="582" spans="13:21" customFormat="1" ht="15">
+      <c r="M582" s="74"/>
+      <c r="U582" s="83"/>
+    </row>
+    <row r="583" spans="13:21" customFormat="1" ht="15">
+      <c r="M583" s="74"/>
+      <c r="U583" s="83"/>
+    </row>
+    <row r="584" spans="13:21" customFormat="1" ht="15">
+      <c r="M584" s="74"/>
+      <c r="U584" s="83"/>
+    </row>
+    <row r="585" spans="13:21" customFormat="1" ht="15">
+      <c r="M585" s="74"/>
+      <c r="U585" s="83"/>
+    </row>
+    <row r="586" spans="13:21" customFormat="1" ht="15">
+      <c r="M586" s="74"/>
+      <c r="U586" s="83"/>
+    </row>
+    <row r="587" spans="13:21" customFormat="1" ht="15">
+      <c r="M587" s="74"/>
+      <c r="U587" s="83"/>
+    </row>
+    <row r="588" spans="13:21" customFormat="1" ht="15">
+      <c r="M588" s="74"/>
+      <c r="U588" s="83"/>
+    </row>
+    <row r="589" spans="13:21" customFormat="1" ht="15">
+      <c r="M589" s="74"/>
+      <c r="U589" s="83"/>
+    </row>
+    <row r="590" spans="13:21" customFormat="1" ht="15">
+      <c r="M590" s="74"/>
+      <c r="U590" s="83"/>
+    </row>
+    <row r="591" spans="13:21" customFormat="1" ht="15">
+      <c r="M591" s="74"/>
+      <c r="U591" s="83"/>
+    </row>
+    <row r="592" spans="13:21" customFormat="1" ht="15">
+      <c r="M592" s="74"/>
+      <c r="U592" s="83"/>
+    </row>
+    <row r="593" spans="13:21" customFormat="1" ht="15">
+      <c r="M593" s="74"/>
+      <c r="U593" s="83"/>
+    </row>
+    <row r="594" spans="13:21" customFormat="1" ht="15">
+      <c r="M594" s="74"/>
+      <c r="U594" s="83"/>
+    </row>
+    <row r="595" spans="13:21" customFormat="1" ht="15">
+      <c r="M595" s="74"/>
+      <c r="U595" s="83"/>
+    </row>
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
